--- a/results/multi_city/inj/inj_data.xlsx
+++ b/results/multi_city/inj/inj_data.xlsx
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="I110">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="111">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="I111">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="112">
@@ -5178,7 +5178,7 @@
         </is>
       </c>
       <c r="I112">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="113">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="I113">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="114">
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="I114">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="115">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="I115">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="116">
@@ -5350,7 +5350,7 @@
         </is>
       </c>
       <c r="I116">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="117">
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="I117">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="118">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="I118">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="119">
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="I119">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="120">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="I120">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="121">
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="I121">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="122">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="I122">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="123">
@@ -5651,7 +5651,7 @@
         </is>
       </c>
       <c r="I123">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="124">
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="I124">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="125">
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="I125">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="126">
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="I126">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="127">
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="I127">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="128">
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="I128">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="129">
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         </is>
       </c>
       <c r="I129">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="130">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="I130">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="131">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="I131">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="132">
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="I132">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="133">
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="I133">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="134">
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="I134">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="135">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="I135">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="136">
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="I136">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="137">
@@ -6253,7 +6253,7 @@
         </is>
       </c>
       <c r="I137">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="138">
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="I138">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="139">
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         </is>
       </c>
       <c r="I139">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="140">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="I140">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="141">
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="I141">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="142">
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="I142">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="143">
@@ -6483,7 +6483,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="I143">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="144">
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="I144">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="145">
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>9.1</v>
+        <v>9.09</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="I145">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="146">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>19.45</v>
+        <v>19.06</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="I146">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="147">
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>24.35</v>
+        <v>23.83</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="I147">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="148">
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>15.55</v>
+        <v>15.25</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="I148">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="149">
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>25.47</v>
+        <v>24.87</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         </is>
       </c>
       <c r="I149">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="150">
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>31.73</v>
+        <v>30.95</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="I150">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="151">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>20.46</v>
+        <v>20</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         </is>
       </c>
       <c r="I151">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="152">
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="I152">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="153">
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="I153">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="154">
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="I154">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="155">
@@ -6999,7 +6999,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>17.9</v>
+        <v>17.58</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="I155">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="156">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>22.72</v>
+        <v>22.3</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         </is>
       </c>
       <c r="I156">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="157">
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>14.12</v>
+        <v>13.88</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         </is>
       </c>
       <c r="I157">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="158">
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="C158">
-        <v>16.64</v>
+        <v>16.29</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="I158">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="159">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="C159">
-        <v>20.9</v>
+        <v>20.44</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         </is>
       </c>
       <c r="I159">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="160">
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>13.26</v>
+        <v>13</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="I160">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="161">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>14.28</v>
+        <v>14.11</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="I161">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="162">
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>22.96</v>
+        <v>22.55</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="I162">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="163">
@@ -7343,7 +7343,7 @@
         </is>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>8.93</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="I163">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="164">
@@ -7386,7 +7386,7 @@
         </is>
       </c>
       <c r="C164">
-        <v>40.85</v>
+        <v>40.98</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         </is>
       </c>
       <c r="I164">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="165">
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="C165">
-        <v>49.3</v>
+        <v>49.45</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="I165">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="166">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>33.88</v>
+        <v>33.98</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="I166">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="167">
@@ -7515,7 +7515,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>54.19</v>
+        <v>54.2</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="I167">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="168">
@@ -7558,7 +7558,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>65.01000000000001</v>
+        <v>65.02</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="I168">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="169">
@@ -7629,7 +7629,7 @@
         </is>
       </c>
       <c r="I169">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="170">
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="C170">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="I170">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="171">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="C171">
-        <v>6.26</v>
+        <v>6.24</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="I171">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="172">
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         </is>
       </c>
       <c r="I172">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="173">
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="I173">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="174">
@@ -7844,7 +7844,7 @@
         </is>
       </c>
       <c r="I174">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="175">
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="I175">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="176">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="C176">
-        <v>40.74</v>
+        <v>40.83</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="I176">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="177">
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>49.25</v>
+        <v>49.36</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="I177">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="178">
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>33.73</v>
+        <v>33.8</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         </is>
       </c>
       <c r="I178">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="179">
@@ -8031,7 +8031,7 @@
         </is>
       </c>
       <c r="C179">
-        <v>52.1</v>
+        <v>52.24</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         </is>
       </c>
       <c r="I179">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="180">
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C180">
-        <v>71.61</v>
+        <v>71.83</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="I180">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="181">
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>38.44</v>
+        <v>38.54</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="I181">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="182">
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>37.02</v>
+        <v>37.18</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="I182">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="183">
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>45.51</v>
+        <v>45.71</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         </is>
       </c>
       <c r="I183">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="184">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>30.14</v>
+        <v>30.26</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         </is>
       </c>
       <c r="I184">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="185">
@@ -8289,7 +8289,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>48.47</v>
+        <v>48.53</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="I185">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="186">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>59.29</v>
+        <v>59.36</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         </is>
       </c>
       <c r="I186">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="187">
@@ -8375,7 +8375,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>39.66</v>
+        <v>39.7</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         </is>
       </c>
       <c r="I187">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="188">
@@ -8418,7 +8418,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="I188">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="189">
@@ -8461,7 +8461,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="I189">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="190">
@@ -8504,7 +8504,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="I190">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="191">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>34.08</v>
+        <v>34.31</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         </is>
       </c>
       <c r="I191">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="192">
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>42.54</v>
+        <v>42.82</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="I192">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="193">
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>27.32</v>
+        <v>27.5</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         </is>
       </c>
       <c r="I193">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="194">
@@ -8676,7 +8676,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>31.68</v>
+        <v>31.79</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="I194">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="195">
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>39.08</v>
+        <v>39.22</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="I195">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="196">
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>25.69</v>
+        <v>25.78</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         </is>
       </c>
       <c r="I196">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="197">
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>4.01</v>
+        <v>4.03</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         </is>
       </c>
       <c r="I197">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="198">
@@ -8848,7 +8848,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>7.28</v>
+        <v>7.32</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="I198">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="199">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         </is>
       </c>
       <c r="I199">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="200">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="I218">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="219">
@@ -9779,7 +9779,7 @@
         </is>
       </c>
       <c r="I219">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="220">
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="I220">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="221">
@@ -9865,7 +9865,7 @@
         </is>
       </c>
       <c r="I221">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="222">
@@ -9908,7 +9908,7 @@
         </is>
       </c>
       <c r="I222">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="223">
@@ -9951,7 +9951,7 @@
         </is>
       </c>
       <c r="I223">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="224">
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="I224">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="225">
@@ -10037,7 +10037,7 @@
         </is>
       </c>
       <c r="I225">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="226">
@@ -10080,7 +10080,7 @@
         </is>
       </c>
       <c r="I226">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="227">
@@ -10123,7 +10123,7 @@
         </is>
       </c>
       <c r="I227">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="228">
@@ -10138,7 +10138,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         </is>
       </c>
       <c r="I228">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="229">
@@ -10209,7 +10209,7 @@
         </is>
       </c>
       <c r="I229">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="230">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="I230">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="231">
@@ -10295,7 +10295,7 @@
         </is>
       </c>
       <c r="I231">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="232">
@@ -10338,7 +10338,7 @@
         </is>
       </c>
       <c r="I232">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="233">
@@ -10353,7 +10353,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>5.25</v>
+        <v>5.26</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="I233">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="234">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>8.92</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         </is>
       </c>
       <c r="I234">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="235">
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="I235">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="236">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         </is>
       </c>
       <c r="I236">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="237">
@@ -10553,7 +10553,7 @@
         </is>
       </c>
       <c r="I237">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="238">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="I238">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="239">
@@ -10639,7 +10639,7 @@
         </is>
       </c>
       <c r="I239">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="240">
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="I240">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="241">
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="I241">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="242">
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="I242">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="243">
@@ -10783,7 +10783,7 @@
         </is>
       </c>
       <c r="C243">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="I243">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="244">
@@ -10854,7 +10854,7 @@
         </is>
       </c>
       <c r="I244">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="245">
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="C245">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         </is>
       </c>
       <c r="I245">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="246">
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         </is>
       </c>
       <c r="I246">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="247">
@@ -10983,7 +10983,7 @@
         </is>
       </c>
       <c r="I247">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="248">
@@ -10998,7 +10998,7 @@
         </is>
       </c>
       <c r="C248">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="I248">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="249">
@@ -11041,7 +11041,7 @@
         </is>
       </c>
       <c r="C249">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         </is>
       </c>
       <c r="I249">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="250">
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="C250">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="I250">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="251">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="C251">
-        <v>17.46</v>
+        <v>17.3</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         </is>
       </c>
       <c r="I251">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="252">
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="C252">
-        <v>27.69</v>
+        <v>27.44</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="I252">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="253">
@@ -11213,7 +11213,7 @@
         </is>
       </c>
       <c r="C253">
-        <v>11.17</v>
+        <v>11.06</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="I253">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="254">
@@ -11256,7 +11256,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>11.53</v>
+        <v>11.49</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="I254">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="255">
@@ -11299,7 +11299,7 @@
         </is>
       </c>
       <c r="C255">
-        <v>14.32</v>
+        <v>14.28</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         </is>
       </c>
       <c r="I255">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="256">
@@ -11342,7 +11342,7 @@
         </is>
       </c>
       <c r="C256">
-        <v>9.279999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         </is>
       </c>
       <c r="I256">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="257">
@@ -11385,7 +11385,7 @@
         </is>
       </c>
       <c r="C257">
-        <v>18.87</v>
+        <v>18.61</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         </is>
       </c>
       <c r="I257">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="258">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="C258">
-        <v>23.34</v>
+        <v>23.01</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         </is>
       </c>
       <c r="I258">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="259">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="C259">
-        <v>15.27</v>
+        <v>15.07</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         </is>
       </c>
       <c r="I259">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="260">
@@ -11542,7 +11542,7 @@
         </is>
       </c>
       <c r="I260">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="261">
@@ -11585,7 +11585,7 @@
         </is>
       </c>
       <c r="I261">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="262">
@@ -11628,7 +11628,7 @@
         </is>
       </c>
       <c r="I262">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="263">
@@ -11643,7 +11643,7 @@
         </is>
       </c>
       <c r="C263">
-        <v>10.92</v>
+        <v>10.87</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="I263">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="264">
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="C264">
-        <v>13.77</v>
+        <v>13.71</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="I264">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="265">
@@ -11729,7 +11729,7 @@
         </is>
       </c>
       <c r="C265">
-        <v>8.67</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         </is>
       </c>
       <c r="I265">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="266">
@@ -11772,7 +11772,7 @@
         </is>
       </c>
       <c r="C266">
-        <v>10.52</v>
+        <v>10.44</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="I266">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="267">
@@ -11815,7 +11815,7 @@
         </is>
       </c>
       <c r="C267">
-        <v>13.12</v>
+        <v>13.01</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         </is>
       </c>
       <c r="I267">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="268">
@@ -11858,7 +11858,7 @@
         </is>
       </c>
       <c r="C268">
-        <v>8.44</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         </is>
       </c>
       <c r="I268">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="269">
@@ -11901,7 +11901,7 @@
         </is>
       </c>
       <c r="C269">
-        <v>7.77</v>
+        <v>7.73</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         </is>
       </c>
       <c r="I269">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="270">
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="C270">
-        <v>12.19</v>
+        <v>12.11</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         </is>
       </c>
       <c r="I270">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="271">
@@ -11987,7 +11987,7 @@
         </is>
       </c>
       <c r="C271">
-        <v>5</v>
+        <v>4.98</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         </is>
       </c>
       <c r="I271">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="272">
@@ -12030,7 +12030,7 @@
         </is>
       </c>
       <c r="C272">
-        <v>37.37</v>
+        <v>37.69</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         </is>
       </c>
       <c r="I272">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="273">
@@ -12073,7 +12073,7 @@
         </is>
       </c>
       <c r="C273">
-        <v>45.11</v>
+        <v>45.49</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         </is>
       </c>
       <c r="I273">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="274">
@@ -12116,7 +12116,7 @@
         </is>
       </c>
       <c r="C274">
-        <v>30.99</v>
+        <v>31.25</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         </is>
       </c>
       <c r="I274">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="275">
@@ -12159,7 +12159,7 @@
         </is>
       </c>
       <c r="C275">
-        <v>60.59</v>
+        <v>60.49</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="I275">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="276">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="C276">
-        <v>72.7</v>
+        <v>72.59</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         </is>
       </c>
       <c r="I276">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="277">
@@ -12245,7 +12245,7 @@
         </is>
       </c>
       <c r="C277">
-        <v>50.54</v>
+        <v>50.46</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         </is>
       </c>
       <c r="I277">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="278">
@@ -12288,7 +12288,7 @@
         </is>
       </c>
       <c r="C278">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         </is>
       </c>
       <c r="I278">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="279">
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="C279">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         </is>
       </c>
       <c r="I279">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="280">
@@ -12374,7 +12374,7 @@
         </is>
       </c>
       <c r="C280">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="I280">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="281">
@@ -12445,7 +12445,7 @@
         </is>
       </c>
       <c r="I281">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="282">
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="I282">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="283">
@@ -12531,7 +12531,7 @@
         </is>
       </c>
       <c r="I283">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="284">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="C284">
-        <v>39.49</v>
+        <v>39.64</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         </is>
       </c>
       <c r="I284">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="285">
@@ -12589,7 +12589,7 @@
         </is>
       </c>
       <c r="C285">
-        <v>47.75</v>
+        <v>47.92</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         </is>
       </c>
       <c r="I285">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="286">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="C286">
-        <v>32.69</v>
+        <v>32.81</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         </is>
       </c>
       <c r="I286">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="287">
@@ -12675,7 +12675,7 @@
         </is>
       </c>
       <c r="C287">
-        <v>49.93</v>
+        <v>50.19</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         </is>
       </c>
       <c r="I287">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="288">
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>68.7</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="I288">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="289">
@@ -12761,7 +12761,7 @@
         </is>
       </c>
       <c r="C289">
-        <v>36.82</v>
+        <v>37.01</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="I289">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="290">
@@ -12804,7 +12804,7 @@
         </is>
       </c>
       <c r="C290">
-        <v>34.39</v>
+        <v>34.77</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="I290">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="291">
@@ -12847,7 +12847,7 @@
         </is>
       </c>
       <c r="C291">
-        <v>42.28</v>
+        <v>42.74</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="I291">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="292">
@@ -12890,7 +12890,7 @@
         </is>
       </c>
       <c r="C292">
-        <v>27.99</v>
+        <v>28.29</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="I292">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="293">
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="C293">
-        <v>56.32</v>
+        <v>56.3</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         </is>
       </c>
       <c r="I293">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="294">
@@ -12976,7 +12976,7 @@
         </is>
       </c>
       <c r="C294">
-        <v>68.89</v>
+        <v>68.87</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         </is>
       </c>
       <c r="I294">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="295">
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>46.06</v>
+        <v>46.05</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="I295">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="296">
@@ -13062,7 +13062,7 @@
         </is>
       </c>
       <c r="C296">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         </is>
       </c>
       <c r="I296">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="297">
@@ -13105,7 +13105,7 @@
         </is>
       </c>
       <c r="C297">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         </is>
       </c>
       <c r="I297">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="298">
@@ -13148,7 +13148,7 @@
         </is>
       </c>
       <c r="C298">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         </is>
       </c>
       <c r="I298">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="299">
@@ -13191,7 +13191,7 @@
         </is>
       </c>
       <c r="C299">
-        <v>32.6</v>
+        <v>32.89</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="I299">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="300">
@@ -13234,7 +13234,7 @@
         </is>
       </c>
       <c r="C300">
-        <v>40.69</v>
+        <v>41.06</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         </is>
       </c>
       <c r="I300">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="301">
@@ -13277,7 +13277,7 @@
         </is>
       </c>
       <c r="C301">
-        <v>26.13</v>
+        <v>26.37</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="I301">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="302">
@@ -13320,7 +13320,7 @@
         </is>
       </c>
       <c r="C302">
-        <v>31.39</v>
+        <v>31.57</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="I302">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="303">
@@ -13363,7 +13363,7 @@
         </is>
       </c>
       <c r="C303">
-        <v>38.73</v>
+        <v>38.95</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         </is>
       </c>
       <c r="I303">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="304">
@@ -13406,7 +13406,7 @@
         </is>
       </c>
       <c r="C304">
-        <v>25.46</v>
+        <v>25.6</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         </is>
       </c>
       <c r="I304">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="305">
@@ -13449,7 +13449,7 @@
         </is>
       </c>
       <c r="C305">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         </is>
       </c>
       <c r="I305">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="306">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C306">
-        <v>7.21</v>
+        <v>7.26</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         </is>
       </c>
       <c r="I306">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="307">
@@ -13535,7 +13535,7 @@
         </is>
       </c>
       <c r="C307">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         </is>
       </c>
       <c r="I307">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="308">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="C309">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         </is>
       </c>
       <c r="C312">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         </is>
       </c>
       <c r="I326">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="327">
@@ -14423,7 +14423,7 @@
         </is>
       </c>
       <c r="I327">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="328">
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="I328">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="329">
@@ -14481,7 +14481,7 @@
         </is>
       </c>
       <c r="C329">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         </is>
       </c>
       <c r="I329">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="330">
@@ -14524,7 +14524,7 @@
         </is>
       </c>
       <c r="C330">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         </is>
       </c>
       <c r="I330">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="331">
@@ -14595,7 +14595,7 @@
         </is>
       </c>
       <c r="I331">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="332">
@@ -14610,7 +14610,7 @@
         </is>
       </c>
       <c r="C332">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         </is>
       </c>
       <c r="I332">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="333">
@@ -14681,7 +14681,7 @@
         </is>
       </c>
       <c r="I333">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="334">
@@ -14724,7 +14724,7 @@
         </is>
       </c>
       <c r="I334">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="335">
@@ -14767,7 +14767,7 @@
         </is>
       </c>
       <c r="I335">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="336">
@@ -14810,7 +14810,7 @@
         </is>
       </c>
       <c r="I336">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="337">
@@ -14853,7 +14853,7 @@
         </is>
       </c>
       <c r="I337">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="338">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="I338">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="339">
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="I339">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="340">
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="I340">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="341">
@@ -14997,7 +14997,7 @@
         </is>
       </c>
       <c r="C341">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="I341">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="342">
@@ -15068,7 +15068,7 @@
         </is>
       </c>
       <c r="I342">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="343">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="C343">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         </is>
       </c>
       <c r="I343">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="344">
@@ -15154,7 +15154,7 @@
         </is>
       </c>
       <c r="I344">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="345">
@@ -15169,7 +15169,7 @@
         </is>
       </c>
       <c r="C345">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         </is>
       </c>
       <c r="I345">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="346">
@@ -15212,7 +15212,7 @@
         </is>
       </c>
       <c r="C346">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         </is>
       </c>
       <c r="I346">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="347">
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="I347">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="348">
@@ -15326,7 +15326,7 @@
         </is>
       </c>
       <c r="I348">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="349">
@@ -15369,7 +15369,7 @@
         </is>
       </c>
       <c r="I349">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="350">
@@ -15412,7 +15412,7 @@
         </is>
       </c>
       <c r="I350">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="351">
@@ -15455,7 +15455,7 @@
         </is>
       </c>
       <c r="I351">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="352">
@@ -15498,7 +15498,7 @@
         </is>
       </c>
       <c r="I352">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="353">
@@ -15513,7 +15513,7 @@
         </is>
       </c>
       <c r="C353">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         </is>
       </c>
       <c r="I353">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="354">
@@ -15556,7 +15556,7 @@
         </is>
       </c>
       <c r="C354">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         </is>
       </c>
       <c r="I354">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="355">
@@ -15599,7 +15599,7 @@
         </is>
       </c>
       <c r="C355">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         </is>
       </c>
       <c r="I355">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="356">
@@ -15670,7 +15670,7 @@
         </is>
       </c>
       <c r="I356">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="357">
@@ -15713,7 +15713,7 @@
         </is>
       </c>
       <c r="I357">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="358">
@@ -15756,7 +15756,7 @@
         </is>
       </c>
       <c r="I358">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="359">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="C359">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         </is>
       </c>
       <c r="I359">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="360">
@@ -15842,7 +15842,7 @@
         </is>
       </c>
       <c r="I360">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="361">
@@ -15857,7 +15857,7 @@
         </is>
       </c>
       <c r="C361">
-        <v>7.97</v>
+        <v>8</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="I361">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="362">
@@ -15900,7 +15900,7 @@
         </is>
       </c>
       <c r="C362">
-        <v>13.92</v>
+        <v>13.96</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         </is>
       </c>
       <c r="I362">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="363">
@@ -15943,7 +15943,7 @@
         </is>
       </c>
       <c r="C363">
-        <v>17.3</v>
+        <v>17.35</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="I363">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="364">
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="C364">
-        <v>11.2</v>
+        <v>11.25</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         </is>
       </c>
       <c r="I364">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="365">
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="C365">
-        <v>13.78</v>
+        <v>13.73</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         </is>
       </c>
       <c r="I365">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="366">
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="C366">
-        <v>17.05</v>
+        <v>16.98</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         </is>
       </c>
       <c r="I366">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="367">
@@ -16115,7 +16115,7 @@
         </is>
       </c>
       <c r="C367">
-        <v>11.14</v>
+        <v>11.11</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         </is>
       </c>
       <c r="I367">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="368">
@@ -16186,7 +16186,7 @@
         </is>
       </c>
       <c r="I368">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="369">
@@ -16229,7 +16229,7 @@
         </is>
       </c>
       <c r="I369">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="370">
@@ -16272,7 +16272,7 @@
         </is>
       </c>
       <c r="I370">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="371">
@@ -16287,7 +16287,7 @@
         </is>
       </c>
       <c r="C371">
-        <v>10.09</v>
+        <v>10.16</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         </is>
       </c>
       <c r="I371">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="372">
@@ -16330,7 +16330,7 @@
         </is>
       </c>
       <c r="C372">
-        <v>12.73</v>
+        <v>12.81</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         </is>
       </c>
       <c r="I372">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="373">
@@ -16373,7 +16373,7 @@
         </is>
       </c>
       <c r="C373">
-        <v>8.01</v>
+        <v>8.07</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         </is>
       </c>
       <c r="I373">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="374">
@@ -16416,7 +16416,7 @@
         </is>
       </c>
       <c r="C374">
-        <v>10.14</v>
+        <v>10.15</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="I374">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="375">
@@ -16459,7 +16459,7 @@
         </is>
       </c>
       <c r="C375">
-        <v>12.65</v>
+        <v>12.66</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="I375">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="376">
@@ -16502,7 +16502,7 @@
         </is>
       </c>
       <c r="C376">
-        <v>8.130000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         </is>
       </c>
       <c r="I376">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="377">
@@ -16545,7 +16545,7 @@
         </is>
       </c>
       <c r="C377">
-        <v>7.39</v>
+        <v>7.47</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         </is>
       </c>
       <c r="I377">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="378">
@@ -16588,7 +16588,7 @@
         </is>
       </c>
       <c r="C378">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         </is>
       </c>
       <c r="I378">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="379">
@@ -16631,7 +16631,7 @@
         </is>
       </c>
       <c r="C379">
-        <v>4.75</v>
+        <v>4.81</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         </is>
       </c>
       <c r="I379">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="380">
@@ -16674,7 +16674,7 @@
         </is>
       </c>
       <c r="C380">
-        <v>44.12</v>
+        <v>44.36</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         </is>
       </c>
       <c r="I380">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="381">
@@ -16717,7 +16717,7 @@
         </is>
       </c>
       <c r="C381">
-        <v>53.27</v>
+        <v>53.55</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         </is>
       </c>
       <c r="I381">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="382">
@@ -16760,7 +16760,7 @@
         </is>
       </c>
       <c r="C382">
-        <v>36.58</v>
+        <v>36.77</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         </is>
       </c>
       <c r="I382">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="383">
@@ -16803,7 +16803,7 @@
         </is>
       </c>
       <c r="C383">
-        <v>45.55</v>
+        <v>45.52</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         </is>
       </c>
       <c r="I383">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="384">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="C384">
-        <v>54.66</v>
+        <v>54.63</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         </is>
       </c>
       <c r="I384">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="385">
@@ -16889,7 +16889,7 @@
         </is>
       </c>
       <c r="C385">
-        <v>37.99</v>
+        <v>37.96</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="I385">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="386">
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="C386">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         </is>
       </c>
       <c r="I386">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="387">
@@ -16975,7 +16975,7 @@
         </is>
       </c>
       <c r="C387">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         </is>
       </c>
       <c r="I387">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="388">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="I388">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="389">
@@ -17089,7 +17089,7 @@
         </is>
       </c>
       <c r="I389">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="390">
@@ -17132,7 +17132,7 @@
         </is>
       </c>
       <c r="I390">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="391">
@@ -17175,7 +17175,7 @@
         </is>
       </c>
       <c r="I391">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="392">
@@ -17190,7 +17190,7 @@
         </is>
       </c>
       <c r="C392">
-        <v>38.09</v>
+        <v>38.23</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         </is>
       </c>
       <c r="I392">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="393">
@@ -17233,7 +17233,7 @@
         </is>
       </c>
       <c r="C393">
-        <v>46.06</v>
+        <v>46.23</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         </is>
       </c>
       <c r="I393">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="394">
@@ -17276,7 +17276,7 @@
         </is>
       </c>
       <c r="C394">
-        <v>31.52</v>
+        <v>31.64</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         </is>
       </c>
       <c r="I394">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="395">
@@ -17319,7 +17319,7 @@
         </is>
       </c>
       <c r="C395">
-        <v>47.65</v>
+        <v>47.75</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         </is>
       </c>
       <c r="I395">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="396">
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="C396">
-        <v>65.59999999999999</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         </is>
       </c>
       <c r="I396">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="397">
@@ -17405,7 +17405,7 @@
         </is>
       </c>
       <c r="C397">
-        <v>35.11</v>
+        <v>35.18</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         </is>
       </c>
       <c r="I397">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="398">
@@ -17448,7 +17448,7 @@
         </is>
       </c>
       <c r="C398">
-        <v>45.94</v>
+        <v>46.03</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         </is>
       </c>
       <c r="I398">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="399">
@@ -17491,7 +17491,7 @@
         </is>
       </c>
       <c r="C399">
-        <v>56.46</v>
+        <v>56.58</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         </is>
       </c>
       <c r="I399">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="400">
@@ -17534,7 +17534,7 @@
         </is>
       </c>
       <c r="C400">
-        <v>37.4</v>
+        <v>37.48</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         </is>
       </c>
       <c r="I400">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="401">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="C401">
-        <v>45.48</v>
+        <v>45.27</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         </is>
       </c>
       <c r="I401">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="402">
@@ -17620,7 +17620,7 @@
         </is>
       </c>
       <c r="C402">
-        <v>55.61</v>
+        <v>55.36</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         </is>
       </c>
       <c r="I402">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="403">
@@ -17663,7 +17663,7 @@
         </is>
       </c>
       <c r="C403">
-        <v>37.21</v>
+        <v>37.04</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         </is>
       </c>
       <c r="I403">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="404">
@@ -17734,7 +17734,7 @@
         </is>
       </c>
       <c r="I404">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="405">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="I405">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="406">
@@ -17820,7 +17820,7 @@
         </is>
       </c>
       <c r="I406">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="407">
@@ -17835,7 +17835,7 @@
         </is>
       </c>
       <c r="C407">
-        <v>33.32</v>
+        <v>33.5</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         </is>
       </c>
       <c r="I407">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="408">
@@ -17878,7 +17878,7 @@
         </is>
       </c>
       <c r="C408">
-        <v>41.58</v>
+        <v>41.8</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="I408">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="409">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="C409">
-        <v>26.72</v>
+        <v>26.86</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         </is>
       </c>
       <c r="I409">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="410">
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="I410">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="411">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="C411">
-        <v>41.28</v>
+        <v>41.29</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         </is>
       </c>
       <c r="I411">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="412">
@@ -18078,7 +18078,7 @@
         </is>
       </c>
       <c r="I412">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="413">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="I413">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="414">
@@ -18136,7 +18136,7 @@
         </is>
       </c>
       <c r="C414">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         </is>
       </c>
       <c r="I414">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="415">
@@ -18207,7 +18207,7 @@
         </is>
       </c>
       <c r="I415">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="416">
@@ -18394,7 +18394,7 @@
         </is>
       </c>
       <c r="C420">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="C426">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         </is>
       </c>
       <c r="C471">
-        <v>45.69</v>
+        <v>45.51000000000001</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         </is>
       </c>
       <c r="I471">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="472">
@@ -20630,7 +20630,7 @@
         </is>
       </c>
       <c r="C472">
-        <v>37.27</v>
+        <v>37.55</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         </is>
       </c>
       <c r="I472">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="473">
@@ -20673,7 +20673,7 @@
         </is>
       </c>
       <c r="C473">
-        <v>48.59999999999999</v>
+        <v>48.73</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         </is>
       </c>
       <c r="I473">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="474">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>56.47</v>
+        <v>56.23999999999999</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         </is>
       </c>
       <c r="I476">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="477">
@@ -20845,7 +20845,7 @@
         </is>
       </c>
       <c r="C477">
-        <v>45.92</v>
+        <v>46.26000000000001</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         </is>
       </c>
       <c r="I477">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="478">
@@ -20888,7 +20888,7 @@
         </is>
       </c>
       <c r="C478">
-        <v>59.86</v>
+        <v>59.99</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         </is>
       </c>
       <c r="I478">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="479">
@@ -20974,7 +20974,7 @@
         </is>
       </c>
       <c r="C480">
-        <v>69.86</v>
+        <v>69.53999999999999</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="I480">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="481">
@@ -21017,7 +21017,7 @@
         </is>
       </c>
       <c r="C481">
-        <v>56.6</v>
+        <v>57.02</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         </is>
       </c>
       <c r="I481">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="482">
@@ -21060,7 +21060,7 @@
         </is>
       </c>
       <c r="C482">
-        <v>73.76000000000001</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         </is>
       </c>
       <c r="I482">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="483">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="C484">
-        <v>60.12</v>
+        <v>59.7</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         </is>
       </c>
       <c r="I484">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="485">
@@ -21189,7 +21189,7 @@
         </is>
       </c>
       <c r="C485">
-        <v>61.33</v>
+        <v>61.12</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         </is>
       </c>
       <c r="I485">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="486">
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="C486">
-        <v>48.35</v>
+        <v>48.15</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         </is>
       </c>
       <c r="I486">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="487">
@@ -21361,7 +21361,7 @@
         </is>
       </c>
       <c r="C489">
-        <v>73.94</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         </is>
       </c>
       <c r="I489">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="490">
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="C490">
-        <v>75.19</v>
+        <v>74.91</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         </is>
       </c>
       <c r="I490">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="491">
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="C491">
-        <v>59.26</v>
+        <v>59</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="I491">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="492">
@@ -21533,7 +21533,7 @@
         </is>
       </c>
       <c r="C493">
-        <v>91.02</v>
+        <v>90.31</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         </is>
       </c>
       <c r="I493">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="494">
@@ -21576,7 +21576,7 @@
         </is>
       </c>
       <c r="C494">
-        <v>92.23</v>
+        <v>91.88000000000001</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         </is>
       </c>
       <c r="I494">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="495">
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="C495">
-        <v>72.66</v>
+        <v>72.34</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         </is>
       </c>
       <c r="I495">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="496">
@@ -21705,7 +21705,7 @@
         </is>
       </c>
       <c r="C497">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         </is>
       </c>
       <c r="I497">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="498">
@@ -21748,7 +21748,7 @@
         </is>
       </c>
       <c r="C498">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         </is>
       </c>
       <c r="I498">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="499">
@@ -21819,7 +21819,7 @@
         </is>
       </c>
       <c r="I499">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="500">
@@ -21920,7 +21920,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         </is>
       </c>
       <c r="I502">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="503">
@@ -21963,7 +21963,7 @@
         </is>
       </c>
       <c r="C503">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         </is>
       </c>
       <c r="I503">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="504">
@@ -22034,7 +22034,7 @@
         </is>
       </c>
       <c r="I504">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="505">
@@ -22092,7 +22092,7 @@
         </is>
       </c>
       <c r="C506">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         </is>
       </c>
       <c r="I506">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="507">
@@ -22135,7 +22135,7 @@
         </is>
       </c>
       <c r="C507">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         </is>
       </c>
       <c r="I507">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="508">
@@ -22206,7 +22206,7 @@
         </is>
       </c>
       <c r="I508">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="509">
@@ -22264,7 +22264,7 @@
         </is>
       </c>
       <c r="C510">
-        <v>41.44</v>
+        <v>41.38</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         </is>
       </c>
       <c r="I510">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="511">
@@ -22307,7 +22307,7 @@
         </is>
       </c>
       <c r="C511">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         </is>
       </c>
       <c r="I511">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="512">
@@ -22350,7 +22350,7 @@
         </is>
       </c>
       <c r="C512">
-        <v>34.73</v>
+        <v>34.93</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         </is>
       </c>
       <c r="I512">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="513">
@@ -22479,7 +22479,7 @@
         </is>
       </c>
       <c r="C515">
-        <v>51.98</v>
+        <v>51.89</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -22507,7 +22507,7 @@
         </is>
       </c>
       <c r="I515">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="516">
@@ -22522,7 +22522,7 @@
         </is>
       </c>
       <c r="C516">
-        <v>43.52</v>
+        <v>43.76</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -22550,7 +22550,7 @@
         </is>
       </c>
       <c r="I516">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="517">
@@ -22565,7 +22565,7 @@
         </is>
       </c>
       <c r="C517">
-        <v>43.41</v>
+        <v>43.66</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         </is>
       </c>
       <c r="I517">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="518">
@@ -22651,7 +22651,7 @@
         </is>
       </c>
       <c r="C519">
-        <v>65.25999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         </is>
       </c>
       <c r="I519">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="520">
@@ -22694,7 +22694,7 @@
         </is>
       </c>
       <c r="C520">
-        <v>54.45999999999999</v>
+        <v>54.77</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         </is>
       </c>
       <c r="I520">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="521">
@@ -22737,7 +22737,7 @@
         </is>
       </c>
       <c r="C521">
-        <v>54.31</v>
+        <v>54.61</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         </is>
       </c>
       <c r="I521">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="522">
@@ -22823,7 +22823,7 @@
         </is>
       </c>
       <c r="C523">
-        <v>11.23</v>
+        <v>11.17</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="I523">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="524">
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="C524">
-        <v>7.2</v>
+        <v>7.200000000000001</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         </is>
       </c>
       <c r="I524">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="525">
@@ -22909,7 +22909,7 @@
         </is>
       </c>
       <c r="C525">
-        <v>7.13</v>
+        <v>7.19</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         </is>
       </c>
       <c r="I525">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="526">
@@ -23038,7 +23038,7 @@
         </is>
       </c>
       <c r="C528">
-        <v>18.29</v>
+        <v>18.14</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         </is>
       </c>
       <c r="I528">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="529">
@@ -23081,7 +23081,7 @@
         </is>
       </c>
       <c r="C529">
-        <v>11.74</v>
+        <v>11.72</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="I529">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="530">
@@ -23124,7 +23124,7 @@
         </is>
       </c>
       <c r="C530">
-        <v>11.67</v>
+        <v>11.75</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="I530">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="531">
@@ -23210,7 +23210,7 @@
         </is>
       </c>
       <c r="C532">
-        <v>30.24</v>
+        <v>29.87</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         </is>
       </c>
       <c r="I532">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="533">
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="C533">
-        <v>19.4</v>
+        <v>19.37</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         </is>
       </c>
       <c r="I533">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="534">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="C534">
-        <v>19.37</v>
+        <v>19.48</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         </is>
       </c>
       <c r="I534">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="535">
@@ -23382,7 +23382,7 @@
         </is>
       </c>
       <c r="C536">
-        <v>38.95</v>
+        <v>38.78</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         </is>
       </c>
       <c r="I536">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="537">
@@ -23425,7 +23425,7 @@
         </is>
       </c>
       <c r="C537">
-        <v>33.9</v>
+        <v>33.98</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         </is>
       </c>
       <c r="I537">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="538">
@@ -23468,7 +23468,7 @@
         </is>
       </c>
       <c r="C538">
-        <v>35.28</v>
+        <v>35.3</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="I538">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="539">
@@ -23597,7 +23597,7 @@
         </is>
       </c>
       <c r="C541">
-        <v>48.32</v>
+        <v>48.08</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         </is>
       </c>
       <c r="I541">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="542">
@@ -23640,7 +23640,7 @@
         </is>
       </c>
       <c r="C542">
-        <v>41.91</v>
+        <v>42.01</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         </is>
       </c>
       <c r="I542">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="543">
@@ -23683,7 +23683,7 @@
         </is>
       </c>
       <c r="C543">
-        <v>43.61</v>
+        <v>43.62</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         </is>
       </c>
       <c r="I543">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="544">
@@ -23769,7 +23769,7 @@
         </is>
       </c>
       <c r="C545">
-        <v>59.98</v>
+        <v>59.66</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         </is>
       </c>
       <c r="I545">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="546">
@@ -23812,7 +23812,7 @@
         </is>
       </c>
       <c r="C546">
-        <v>51.84999999999999</v>
+        <v>51.96</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         </is>
       </c>
       <c r="I546">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="547">
@@ -23855,7 +23855,7 @@
         </is>
       </c>
       <c r="C547">
-        <v>53.93</v>
+        <v>53.95</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         </is>
       </c>
       <c r="I547">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="548">
@@ -23941,7 +23941,7 @@
         </is>
       </c>
       <c r="C549">
-        <v>199.2</v>
+        <v>198.3</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         </is>
       </c>
       <c r="I549">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="550">
@@ -23984,7 +23984,7 @@
         </is>
       </c>
       <c r="C550">
-        <v>175.38</v>
+        <v>175.72</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         </is>
       </c>
       <c r="I550">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="551">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="C551">
-        <v>174.99</v>
+        <v>175.2</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         </is>
       </c>
       <c r="I551">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="552">
@@ -24141,7 +24141,7 @@
         </is>
       </c>
       <c r="I553">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="554">
@@ -24156,7 +24156,7 @@
         </is>
       </c>
       <c r="C554">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         </is>
       </c>
       <c r="I554">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="555">
@@ -24199,7 +24199,7 @@
         </is>
       </c>
       <c r="C555">
-        <v>4.69</v>
+        <v>4.680000000000001</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="I555">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="556">
@@ -24285,7 +24285,7 @@
         </is>
       </c>
       <c r="C557">
-        <v>12.87</v>
+        <v>12.88</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         </is>
       </c>
       <c r="I557">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="558">
@@ -24328,7 +24328,7 @@
         </is>
       </c>
       <c r="C558">
-        <v>15.37</v>
+        <v>15.25</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         </is>
       </c>
       <c r="I558">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="559">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="C559">
-        <v>11.41</v>
+        <v>11.46</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         </is>
       </c>
       <c r="I559">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="560">
@@ -24457,7 +24457,7 @@
         </is>
       </c>
       <c r="C561">
-        <v>72.39</v>
+        <v>71.06</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         </is>
       </c>
       <c r="I561">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="562">
@@ -24500,7 +24500,7 @@
         </is>
       </c>
       <c r="C562">
-        <v>46.66</v>
+        <v>46.32</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         </is>
       </c>
       <c r="I562">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="563">
@@ -24543,7 +24543,7 @@
         </is>
       </c>
       <c r="C563">
-        <v>43.23</v>
+        <v>43.39</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="I563">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="564">
@@ -24629,7 +24629,7 @@
         </is>
       </c>
       <c r="C565">
-        <v>153.57</v>
+        <v>153.83</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         </is>
       </c>
       <c r="I565">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="566">
@@ -24672,7 +24672,7 @@
         </is>
       </c>
       <c r="C566">
-        <v>152.25</v>
+        <v>152.73</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         </is>
       </c>
       <c r="I566">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="567">
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="C567">
-        <v>142.32</v>
+        <v>142.67</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         </is>
       </c>
       <c r="I567">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="568">
@@ -24801,7 +24801,7 @@
         </is>
       </c>
       <c r="C569">
-        <v>126.81</v>
+        <v>127.24</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         </is>
       </c>
       <c r="I569">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="570">
@@ -24844,7 +24844,7 @@
         </is>
       </c>
       <c r="C570">
-        <v>128.72</v>
+        <v>129.4</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         </is>
       </c>
       <c r="I570">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="571">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="C571">
-        <v>131.76</v>
+        <v>131.81</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         </is>
       </c>
       <c r="I571">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="572">
@@ -25188,7 +25188,7 @@
         </is>
       </c>
       <c r="C578">
-        <v>251.94</v>
+        <v>250.68</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         </is>
       </c>
       <c r="I578">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="579">
@@ -25231,7 +25231,7 @@
         </is>
       </c>
       <c r="C579">
-        <v>219.74</v>
+        <v>220.11</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         </is>
       </c>
       <c r="I579">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="580">
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C580">
-        <v>219.3</v>
+        <v>219.51</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         </is>
       </c>
       <c r="I580">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="581">
@@ -25431,7 +25431,7 @@
         </is>
       </c>
       <c r="I583">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="584">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="C584">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         </is>
       </c>
       <c r="I584">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="585">
@@ -25489,7 +25489,7 @@
         </is>
       </c>
       <c r="C585">
-        <v>8.299999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         </is>
       </c>
       <c r="I585">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="586">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="I588">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="589">
@@ -25661,7 +25661,7 @@
         </is>
       </c>
       <c r="C589">
-        <v>23.97</v>
+        <v>23.77</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         </is>
       </c>
       <c r="I589">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="590">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="C590">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         </is>
       </c>
       <c r="I590">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="591">
@@ -25833,7 +25833,7 @@
         </is>
       </c>
       <c r="C593">
-        <v>93.73999999999999</v>
+        <v>91.91</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         </is>
       </c>
       <c r="I593">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="594">
@@ -25876,7 +25876,7 @@
         </is>
       </c>
       <c r="C594">
-        <v>59.61</v>
+        <v>59.14</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         </is>
       </c>
       <c r="I594">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="595">
@@ -25919,7 +25919,7 @@
         </is>
       </c>
       <c r="C595">
-        <v>55.32</v>
+        <v>55.47</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         </is>
       </c>
       <c r="I595">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="596">
@@ -26048,7 +26048,7 @@
         </is>
       </c>
       <c r="C598">
-        <v>191.68</v>
+        <v>192.04</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         </is>
       </c>
       <c r="I598">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="599">
@@ -26091,7 +26091,7 @@
         </is>
       </c>
       <c r="C599">
-        <v>189.36</v>
+        <v>189.98</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         </is>
       </c>
       <c r="I599">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="600">
@@ -26134,7 +26134,7 @@
         </is>
       </c>
       <c r="C600">
-        <v>177.25</v>
+        <v>177.71</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         </is>
       </c>
       <c r="I600">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="601">
@@ -26263,7 +26263,7 @@
         </is>
       </c>
       <c r="C603">
-        <v>158.2</v>
+        <v>158.77</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         </is>
       </c>
       <c r="I603">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="604">
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="C604">
-        <v>160.13</v>
+        <v>160.97</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         </is>
       </c>
       <c r="I604">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="605">
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="C605">
-        <v>163.98</v>
+        <v>164.04</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         </is>
       </c>
       <c r="I605">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="606">
@@ -26650,7 +26650,7 @@
         </is>
       </c>
       <c r="C612">
-        <v>321.23</v>
+        <v>319.36</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         </is>
       </c>
       <c r="I612">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="613">
@@ -26693,7 +26693,7 @@
         </is>
       </c>
       <c r="C613">
-        <v>276.96</v>
+        <v>277.41</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="I613">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="614">
@@ -26736,7 +26736,7 @@
         </is>
       </c>
       <c r="C614">
-        <v>276.5</v>
+        <v>276.78</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="I614">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="615">
@@ -26822,7 +26822,7 @@
         </is>
       </c>
       <c r="C616">
-        <v>12.85</v>
+        <v>12.86</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         </is>
       </c>
       <c r="I616">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="617">
@@ -26865,7 +26865,7 @@
         </is>
       </c>
       <c r="C617">
-        <v>12.16</v>
+        <v>12.21</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         </is>
       </c>
       <c r="I617">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="618">
@@ -26908,7 +26908,7 @@
         </is>
       </c>
       <c r="C618">
-        <v>14.91</v>
+        <v>14.9</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         </is>
       </c>
       <c r="I618">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="619">
@@ -26994,7 +26994,7 @@
         </is>
       </c>
       <c r="C620">
-        <v>31.93</v>
+        <v>31.95</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         </is>
       </c>
       <c r="I620">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="621">
@@ -27037,7 +27037,7 @@
         </is>
       </c>
       <c r="C621">
-        <v>37.76000000000001</v>
+        <v>37.46</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         </is>
       </c>
       <c r="I621">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="622">
@@ -27080,7 +27080,7 @@
         </is>
       </c>
       <c r="C622">
-        <v>28.32</v>
+        <v>28.34</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         </is>
       </c>
       <c r="I622">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="623">
@@ -27166,7 +27166,7 @@
         </is>
       </c>
       <c r="C624">
-        <v>122.66</v>
+        <v>120.07</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         </is>
       </c>
       <c r="I624">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="625">
@@ -27209,7 +27209,7 @@
         </is>
       </c>
       <c r="C625">
-        <v>76.73999999999999</v>
+        <v>76.12</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         </is>
       </c>
       <c r="I625">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="626">
@@ -27252,7 +27252,7 @@
         </is>
       </c>
       <c r="C626">
-        <v>71.33</v>
+        <v>71.5</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         </is>
       </c>
       <c r="I626">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="627">
@@ -27338,7 +27338,7 @@
         </is>
       </c>
       <c r="C628">
-        <v>241.43</v>
+        <v>241.9</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         </is>
       </c>
       <c r="I628">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="629">
@@ -27381,7 +27381,7 @@
         </is>
       </c>
       <c r="C629">
-        <v>237.52</v>
+        <v>238.28</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         </is>
       </c>
       <c r="I629">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="630">
@@ -27424,7 +27424,7 @@
         </is>
       </c>
       <c r="C630">
-        <v>222.62</v>
+        <v>223.21</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         </is>
       </c>
       <c r="I630">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="631">
@@ -27510,7 +27510,7 @@
         </is>
       </c>
       <c r="C632">
-        <v>198.57</v>
+        <v>199.29</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         </is>
       </c>
       <c r="I632">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="633">
@@ -27553,7 +27553,7 @@
         </is>
       </c>
       <c r="C633">
-        <v>200.22</v>
+        <v>201.29</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         </is>
       </c>
       <c r="I633">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="634">
@@ -27596,7 +27596,7 @@
         </is>
       </c>
       <c r="C634">
-        <v>205.17</v>
+        <v>205.28</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         </is>
       </c>
       <c r="I634">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="635">
@@ -27682,7 +27682,7 @@
         </is>
       </c>
       <c r="C636">
-        <v>4.72</v>
+        <v>4.73</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>73.4358</v>
+        <v>73.43559999999999</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>47.8105</v>
+        <v>47.8103</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>75.2157</v>
+        <v>75.21559999999999</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>74.70910000000001</v>
+        <v>74.709</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>44.5812</v>
+        <v>44.5813</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>30.5799</v>
+        <v>30.58</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.521</v>
+        <v>0.5201</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         </is>
       </c>
       <c r="H23">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="24">
@@ -28702,7 +28702,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2.0319</v>
+        <v>2.0246</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         </is>
       </c>
       <c r="H24">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="25">
@@ -28740,7 +28740,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>41.0703</v>
+        <v>40.5503</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         </is>
       </c>
       <c r="H25">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="26">
@@ -28778,7 +28778,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>38.0886</v>
+        <v>38.0091</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         </is>
       </c>
       <c r="H26">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="27">
@@ -28816,7 +28816,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>60.5809</v>
+        <v>60.4234</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -28839,7 +28839,7 @@
         </is>
       </c>
       <c r="H27">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="28">
@@ -28854,7 +28854,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.6297</v>
+        <v>0.6298</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>51.4813</v>
+        <v>51.2195</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         </is>
       </c>
       <c r="H29">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="30">
@@ -28930,7 +28930,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.9399999999999999</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         </is>
       </c>
       <c r="H30">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="31">
@@ -28968,7 +28968,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>3.2178</v>
+        <v>3.2075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         </is>
       </c>
       <c r="H31">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="32">
@@ -29006,7 +29006,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>53.7392</v>
+        <v>52.971</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         </is>
       </c>
       <c r="H32">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="33">
@@ -29044,7 +29044,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>47.9707</v>
+        <v>47.8764</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         </is>
       </c>
       <c r="H33">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="34">
@@ -29082,7 +29082,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>76.0425</v>
+        <v>75.8501</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         </is>
       </c>
       <c r="H34">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="35">
@@ -29120,7 +29120,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>1.9171</v>
+        <v>1.9172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>65.6404</v>
+        <v>65.25409999999999</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         </is>
       </c>
       <c r="H36">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="37">
@@ -29196,7 +29196,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.2943</v>
+        <v>0.2937</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         </is>
       </c>
       <c r="H37">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
     </row>
     <row r="38">
@@ -29234,7 +29234,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.2976</v>
+        <v>1.2925</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         </is>
       </c>
       <c r="H38">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
     </row>
     <row r="39">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>31.7131</v>
+        <v>31.349</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         </is>
       </c>
       <c r="H39">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
     </row>
     <row r="40">
@@ -29310,7 +29310,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>30.5155</v>
+        <v>30.4482</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         </is>
       </c>
       <c r="H40">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
     </row>
     <row r="41">
@@ -29348,7 +29348,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>48.5562</v>
+        <v>48.4264</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         </is>
       </c>
       <c r="H41">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
     </row>
     <row r="42">
@@ -29424,7 +29424,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>40.7007</v>
+        <v>40.5173</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="H43">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
     </row>
     <row r="44">
@@ -29462,7 +29462,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.5308</v>
+        <v>0.5293</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         </is>
       </c>
       <c r="H44">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="45">
@@ -29500,7 +29500,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>1.9238</v>
+        <v>1.8924</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -29523,7 +29523,7 @@
         </is>
       </c>
       <c r="H45">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="46">
@@ -29538,7 +29538,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>58.8692</v>
+        <v>59.2413</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         </is>
       </c>
       <c r="H46">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="47">
@@ -29576,7 +29576,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>39.2248</v>
+        <v>39.1922</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         </is>
       </c>
       <c r="H47">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="48">
@@ -29614,7 +29614,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>61.8129</v>
+        <v>61.782</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="H48">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="49">
@@ -29690,7 +29690,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>60.9856</v>
+        <v>61.0781</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         </is>
       </c>
       <c r="H50">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="51">
@@ -29728,7 +29728,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.9591</v>
+        <v>0.9568</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         </is>
       </c>
       <c r="H51">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="52">
@@ -29766,7 +29766,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>3.0314</v>
+        <v>2.9824</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         </is>
       </c>
       <c r="H52">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="53">
@@ -29804,7 +29804,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>75.7786</v>
+        <v>76.23739999999999</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="H53">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="54">
@@ -29842,7 +29842,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>49.1978</v>
+        <v>49.1561</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         </is>
       </c>
       <c r="H54">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="55">
@@ -29880,7 +29880,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>77.2957</v>
+        <v>77.2568</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         </is>
       </c>
       <c r="H55">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="56">
@@ -29918,7 +29918,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>1.9321</v>
+        <v>1.9318</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>76.8693</v>
+        <v>76.9744</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         </is>
       </c>
       <c r="H57">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="58">
@@ -29994,7 +29994,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.2994</v>
+        <v>0.2985</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         </is>
       </c>
       <c r="H58">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
     </row>
     <row r="59">
@@ -30032,7 +30032,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.2345</v>
+        <v>1.2142</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         </is>
       </c>
       <c r="H59">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
     </row>
     <row r="60">
@@ -30070,7 +30070,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>46.0835</v>
+        <v>46.3873</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -30093,7 +30093,7 @@
         </is>
       </c>
       <c r="H60">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
     </row>
     <row r="61">
@@ -30108,7 +30108,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>31.5327</v>
+        <v>31.5065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         </is>
       </c>
       <c r="H61">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
     </row>
     <row r="62">
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>49.6906</v>
+        <v>49.6657</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         </is>
       </c>
       <c r="H62">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
     </row>
     <row r="63">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>48.6768</v>
+        <v>48.7574</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         </is>
       </c>
       <c r="H64">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
     </row>
     <row r="65">
@@ -30260,7 +30260,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>0.5014</v>
+        <v>0.4997</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         </is>
       </c>
       <c r="H65">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="66">
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>2.1475</v>
+        <v>2.0861</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         </is>
       </c>
       <c r="H66">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="67">
@@ -30336,7 +30336,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>57.3802</v>
+        <v>57.5783</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         </is>
       </c>
       <c r="H67">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="68">
@@ -30374,7 +30374,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>38.5805</v>
+        <v>38.4436</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         </is>
       </c>
       <c r="H68">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="69">
@@ -30412,7 +30412,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>58.559</v>
+        <v>58.4841</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         </is>
       </c>
       <c r="H69">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="70">
@@ -30488,7 +30488,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>58.2571</v>
+        <v>58.2525</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         </is>
       </c>
       <c r="H71">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="72">
@@ -30526,7 +30526,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.9019</v>
+        <v>0.8993</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         </is>
       </c>
       <c r="H72">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="73">
@@ -30564,7 +30564,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>3.4021</v>
+        <v>3.2999</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         </is>
       </c>
       <c r="H73">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="74">
@@ -30602,7 +30602,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>73.9918</v>
+        <v>74.1964</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         </is>
       </c>
       <c r="H74">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="75">
@@ -30640,7 +30640,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>48.455</v>
+        <v>48.289</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         </is>
       </c>
       <c r="H75">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="76">
@@ -30678,7 +30678,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>73.27509999999999</v>
+        <v>73.1833</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         </is>
       </c>
       <c r="H76">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="77">
@@ -30716,7 +30716,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>1.8966</v>
+        <v>1.8968</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>73.45869999999999</v>
+        <v>73.4423</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         </is>
       </c>
       <c r="H78">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="79">
@@ -30792,7 +30792,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.284</v>
+        <v>0.2829</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         </is>
       </c>
       <c r="H79">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
     </row>
     <row r="80">
@@ -30830,7 +30830,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>1.371</v>
+        <v>1.3335</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         </is>
       </c>
       <c r="H80">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
     </row>
     <row r="81">
@@ -30868,7 +30868,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>44.8476</v>
+        <v>45.031</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         </is>
       </c>
       <c r="H81">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
     </row>
     <row r="82">
@@ -30906,7 +30906,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>30.9761</v>
+        <v>30.8635</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         </is>
       </c>
       <c r="H82">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
     </row>
     <row r="83">
@@ -30944,7 +30944,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>47.0518</v>
+        <v>46.9903</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="H83">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
     </row>
     <row r="84">
@@ -31020,7 +31020,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>46.4873</v>
+        <v>46.4893</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         </is>
       </c>
       <c r="H85">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
     </row>
     <row r="86">
@@ -32258,7 +32258,7 @@
         </is>
       </c>
       <c r="F23">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
       <c r="G23">
         <v>5717079</v>
@@ -32299,7 +32299,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
       <c r="G24">
         <v>5717079</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         </is>
       </c>
       <c r="F25">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
       <c r="G25">
         <v>5717079</v>
@@ -32368,7 +32368,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
       <c r="G26">
         <v>5717079</v>
@@ -32409,7 +32409,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         </is>
       </c>
       <c r="F27">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
       <c r="G27">
         <v>5717079</v>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>4.41</v>
+        <v>4.38</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -32504,7 +32504,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
       <c r="G29">
         <v>5717079</v>
@@ -32545,7 +32545,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
       <c r="G30">
         <v>5717079</v>
@@ -32586,7 +32586,7 @@
         </is>
       </c>
       <c r="F31">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
       <c r="G31">
         <v>5717079</v>
@@ -32614,7 +32614,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -32627,7 +32627,7 @@
         </is>
       </c>
       <c r="F32">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
       <c r="G32">
         <v>5717079</v>
@@ -32655,7 +32655,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
       <c r="G33">
         <v>5717079</v>
@@ -32696,7 +32696,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
       <c r="G34">
         <v>5717079</v>
@@ -32778,7 +32778,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>5.62</v>
+        <v>5.59</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
       <c r="G36">
         <v>5717079</v>
@@ -32832,7 +32832,7 @@
         </is>
       </c>
       <c r="F37">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
       <c r="G37">
         <v>5717079</v>
@@ -32873,7 +32873,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
       <c r="G38">
         <v>5717079</v>
@@ -32901,7 +32901,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
       <c r="G39">
         <v>5717079</v>
@@ -32955,7 +32955,7 @@
         </is>
       </c>
       <c r="F40">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
       <c r="G40">
         <v>5717079</v>
@@ -32983,7 +32983,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         </is>
       </c>
       <c r="F41">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
       <c r="G41">
         <v>5717079</v>
@@ -33065,7 +33065,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>3.48</v>
+        <v>3.47</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         </is>
       </c>
       <c r="F43">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
       <c r="G43">
         <v>5717079</v>
@@ -33119,7 +33119,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
       <c r="G44">
         <v>5717079</v>
@@ -33160,7 +33160,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
       <c r="G45">
         <v>5717079</v>
@@ -33188,7 +33188,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         </is>
       </c>
       <c r="F46">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
       <c r="G46">
         <v>5717079</v>
@@ -33229,7 +33229,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         </is>
       </c>
       <c r="F47">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
       <c r="G47">
         <v>5717079</v>
@@ -33270,7 +33270,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
       <c r="G48">
         <v>5717079</v>
@@ -33352,7 +33352,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         </is>
       </c>
       <c r="F50">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
       <c r="G50">
         <v>5717079</v>
@@ -33406,7 +33406,7 @@
         </is>
       </c>
       <c r="F51">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
       <c r="G51">
         <v>5717079</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="F52">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
       <c r="G52">
         <v>5717079</v>
@@ -33475,7 +33475,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -33488,7 +33488,7 @@
         </is>
       </c>
       <c r="F53">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
       <c r="G53">
         <v>5717079</v>
@@ -33516,7 +33516,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>4.15</v>
+        <v>4.17</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
       <c r="G54">
         <v>5717079</v>
@@ -33557,7 +33557,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         </is>
       </c>
       <c r="F55">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
       <c r="G55">
         <v>5717079</v>
@@ -33639,7 +33639,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>4.84</v>
+        <v>4.85</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
       <c r="G57">
         <v>5717079</v>
@@ -33693,7 +33693,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
       <c r="G58">
         <v>5717079</v>
@@ -33734,7 +33734,7 @@
         </is>
       </c>
       <c r="F59">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
       <c r="G59">
         <v>5717079</v>
@@ -33762,7 +33762,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         </is>
       </c>
       <c r="F60">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
       <c r="G60">
         <v>5717079</v>
@@ -33803,7 +33803,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         </is>
       </c>
       <c r="F61">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
       <c r="G61">
         <v>5717079</v>
@@ -33844,7 +33844,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         </is>
       </c>
       <c r="F62">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
       <c r="G62">
         <v>5717079</v>
@@ -33939,7 +33939,7 @@
         </is>
       </c>
       <c r="F64">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
       <c r="G64">
         <v>5717079</v>
@@ -33980,7 +33980,7 @@
         </is>
       </c>
       <c r="F65">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
       <c r="G65">
         <v>5717079</v>
@@ -34021,7 +34021,7 @@
         </is>
       </c>
       <c r="F66">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
       <c r="G66">
         <v>5717079</v>
@@ -34062,7 +34062,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
       <c r="G67">
         <v>5717079</v>
@@ -34090,7 +34090,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         </is>
       </c>
       <c r="F68">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
       <c r="G68">
         <v>5717079</v>
@@ -34144,7 +34144,7 @@
         </is>
       </c>
       <c r="F69">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
       <c r="G69">
         <v>5717079</v>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
       <c r="G71">
         <v>5717079</v>
@@ -34267,7 +34267,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
       <c r="G72">
         <v>5717079</v>
@@ -34308,7 +34308,7 @@
         </is>
       </c>
       <c r="F73">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
       <c r="G73">
         <v>5717079</v>
@@ -34349,7 +34349,7 @@
         </is>
       </c>
       <c r="F74">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
       <c r="G74">
         <v>5717079</v>
@@ -34377,7 +34377,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         </is>
       </c>
       <c r="F75">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
       <c r="G75">
         <v>5717079</v>
@@ -34431,7 +34431,7 @@
         </is>
       </c>
       <c r="F76">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
       <c r="G76">
         <v>5717079</v>
@@ -34513,7 +34513,7 @@
         </is>
       </c>
       <c r="F78">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
       <c r="G78">
         <v>5717079</v>
@@ -34554,7 +34554,7 @@
         </is>
       </c>
       <c r="F79">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
       <c r="G79">
         <v>5717079</v>
@@ -34595,7 +34595,7 @@
         </is>
       </c>
       <c r="F80">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
       <c r="G80">
         <v>5717079</v>
@@ -34636,7 +34636,7 @@
         </is>
       </c>
       <c r="F81">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
       <c r="G81">
         <v>5717079</v>
@@ -34664,7 +34664,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
       <c r="G82">
         <v>5717079</v>
@@ -34705,7 +34705,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -34718,7 +34718,7 @@
         </is>
       </c>
       <c r="F83">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
       <c r="G83">
         <v>5717079</v>
@@ -34800,7 +34800,7 @@
         </is>
       </c>
       <c r="F85">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
       <c r="G85">
         <v>5717079</v>
@@ -35503,7 +35503,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>4.3974</v>
+        <v>4.3973</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>52.8738</v>
+        <v>52.8737</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -35585,7 +35585,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>72.672</v>
+        <v>72.6717</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.5585</v>
+        <v>1.5584</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>22.9393</v>
+        <v>22.9392</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>46.4815</v>
+        <v>46.4816</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.422</v>
+        <v>0.4213</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -36059,10 +36059,10 @@
         </is>
       </c>
       <c r="H23">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
       <c r="I23">
-        <v>4626236.672675952</v>
+        <v>4631509.088332276</v>
       </c>
     </row>
     <row r="24">
@@ -36077,7 +36077,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2.804</v>
+        <v>2.794</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -36100,10 +36100,10 @@
         </is>
       </c>
       <c r="H24">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
       <c r="I24">
-        <v>1970224.57667361</v>
+        <v>1977434.145265609</v>
       </c>
     </row>
     <row r="25">
@@ -36118,7 +36118,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>29.5706</v>
+        <v>29.1962</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -36141,10 +36141,10 @@
         </is>
       </c>
       <c r="H25">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
       <c r="I25">
-        <v>868533.9009292207</v>
+        <v>862490.7381938217</v>
       </c>
     </row>
     <row r="26">
@@ -36159,7 +36159,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>57.8946</v>
+        <v>57.7738</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -36182,10 +36182,10 @@
         </is>
       </c>
       <c r="H26">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
       <c r="I26">
-        <v>907100.9540920308</v>
+        <v>910684.576074979</v>
       </c>
     </row>
     <row r="27">
@@ -36200,7 +36200,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>15.1452</v>
+        <v>15.1059</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -36223,10 +36223,10 @@
         </is>
       </c>
       <c r="H27">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
       <c r="I27">
-        <v>2861855.61390923</v>
+        <v>2879438.414164748</v>
       </c>
     </row>
     <row r="28">
@@ -36282,7 +36282,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>18.5038</v>
+        <v>18.3536</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -36305,10 +36305,10 @@
         </is>
       </c>
       <c r="H29">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
       <c r="I29">
-        <v>3730389.514838451</v>
+        <v>3741929.152358569</v>
       </c>
     </row>
     <row r="30">
@@ -36323,7 +36323,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.7614</v>
+        <v>0.7606000000000001</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -36346,10 +36346,10 @@
         </is>
       </c>
       <c r="H30">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
       <c r="I30">
-        <v>4626236.672675952</v>
+        <v>4631509.088332276</v>
       </c>
     </row>
     <row r="31">
@@ -36364,7 +36364,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>4.4405</v>
+        <v>4.4264</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -36387,10 +36387,10 @@
         </is>
       </c>
       <c r="H31">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
       <c r="I31">
-        <v>1970224.57667361</v>
+        <v>1977434.145265609</v>
       </c>
     </row>
     <row r="32">
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>38.6923</v>
+        <v>38.1391</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -36428,10 +36428,10 @@
         </is>
       </c>
       <c r="H32">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
       <c r="I32">
-        <v>868533.9009292207</v>
+        <v>862490.7381938217</v>
       </c>
     </row>
     <row r="33">
@@ -36446,7 +36446,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>72.91549999999999</v>
+        <v>72.77209999999999</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -36469,10 +36469,10 @@
         </is>
       </c>
       <c r="H33">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
       <c r="I33">
-        <v>907100.9540920308</v>
+        <v>910684.576074979</v>
       </c>
     </row>
     <row r="34">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>19.0106</v>
+        <v>18.9625</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -36510,10 +36510,10 @@
         </is>
       </c>
       <c r="H34">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
       <c r="I34">
-        <v>2861855.61390923</v>
+        <v>2879438.414164748</v>
       </c>
     </row>
     <row r="35">
@@ -36528,7 +36528,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>1.5528</v>
+        <v>1.5529</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -36569,7 +36569,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>23.593</v>
+        <v>23.3826</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -36592,10 +36592,10 @@
         </is>
       </c>
       <c r="H36">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
       <c r="I36">
-        <v>3730389.514838451</v>
+        <v>3741929.152358569</v>
       </c>
     </row>
     <row r="37">
@@ -36610,7 +36610,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.2384</v>
+        <v>0.2379</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -36633,10 +36633,10 @@
         </is>
       </c>
       <c r="H37">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
       <c r="I37">
-        <v>4626236.672675952</v>
+        <v>4631509.088332276</v>
       </c>
     </row>
     <row r="38">
@@ -36651,7 +36651,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.7907</v>
+        <v>1.7837</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -36674,10 +36674,10 @@
         </is>
       </c>
       <c r="H38">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
       <c r="I38">
-        <v>1970224.57667361</v>
+        <v>1977434.145265609</v>
       </c>
     </row>
     <row r="39">
@@ -36692,7 +36692,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>22.8334</v>
+        <v>22.5713</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -36715,10 +36715,10 @@
         </is>
       </c>
       <c r="H39">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
       <c r="I39">
-        <v>868533.9009292207</v>
+        <v>862490.7381938217</v>
       </c>
     </row>
     <row r="40">
@@ -36733,7 +36733,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>46.3835</v>
+        <v>46.2812</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -36756,10 +36756,10 @@
         </is>
       </c>
       <c r="H40">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
       <c r="I40">
-        <v>907100.9540920308</v>
+        <v>910684.576074979</v>
       </c>
     </row>
     <row r="41">
@@ -36774,7 +36774,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>12.139</v>
+        <v>12.1066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -36797,10 +36797,10 @@
         </is>
       </c>
       <c r="H41">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
       <c r="I41">
-        <v>2861855.61390923</v>
+        <v>2879438.414164748</v>
       </c>
     </row>
     <row r="42">
@@ -36856,7 +36856,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>14.629</v>
+        <v>14.5186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -36879,10 +36879,10 @@
         </is>
       </c>
       <c r="H43">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
       <c r="I43">
-        <v>3730389.514838451</v>
+        <v>3741929.152358569</v>
       </c>
     </row>
     <row r="44">
@@ -36897,7 +36897,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.4299</v>
+        <v>0.4287</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -36920,10 +36920,10 @@
         </is>
       </c>
       <c r="H44">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
       <c r="I44">
-        <v>4287773.828808057</v>
+        <v>4314446.972545605</v>
       </c>
     </row>
     <row r="45">
@@ -36938,7 +36938,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>2.6549</v>
+        <v>2.6115</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -36961,10 +36961,10 @@
         </is>
       </c>
       <c r="H45">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
       <c r="I45">
-        <v>2472588.772841141</v>
+        <v>2493443.136570161</v>
       </c>
     </row>
     <row r="46">
@@ -36979,7 +36979,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>42.3858</v>
+        <v>42.6537</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -37002,10 +37002,10 @@
         </is>
       </c>
       <c r="H46">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
       <c r="I46">
-        <v>385335.7236020907</v>
+        <v>379936.6628024168</v>
       </c>
     </row>
     <row r="47">
@@ -37020,7 +37020,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>59.6217</v>
+        <v>59.5721</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -37043,10 +37043,10 @@
         </is>
       </c>
       <c r="H47">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
       <c r="I47">
-        <v>870204.5640164753</v>
+        <v>873693.2637797169</v>
       </c>
     </row>
     <row r="48">
@@ -37061,7 +37061,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>15.4532</v>
+        <v>15.4455</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -37084,10 +37084,10 @@
         </is>
       </c>
       <c r="H48">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
       <c r="I48">
-        <v>2838930.048715942</v>
+        <v>2855250.506724972</v>
       </c>
     </row>
     <row r="49">
@@ -37102,7 +37102,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>0.5132</v>
+        <v>0.5131</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -37143,7 +37143,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>18.672</v>
+        <v>18.6408</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -37166,10 +37166,10 @@
         </is>
       </c>
       <c r="H50">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
       <c r="I50">
-        <v>3224265.772318033</v>
+        <v>3235187.169527389</v>
       </c>
     </row>
     <row r="51">
@@ -37184,7 +37184,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.7768</v>
+        <v>0.775</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -37207,10 +37207,10 @@
         </is>
       </c>
       <c r="H51">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
       <c r="I51">
-        <v>4287773.828808057</v>
+        <v>4314446.972545605</v>
       </c>
     </row>
     <row r="52">
@@ -37225,7 +37225,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>4.1833</v>
+        <v>4.1158</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -37248,10 +37248,10 @@
         </is>
       </c>
       <c r="H52">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
       <c r="I52">
-        <v>2472588.772841141</v>
+        <v>2493443.136570161</v>
       </c>
     </row>
     <row r="53">
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>54.5606</v>
+        <v>54.8909</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -37289,10 +37289,10 @@
         </is>
       </c>
       <c r="H53">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
       <c r="I53">
-        <v>385335.7236020907</v>
+        <v>379936.6628024168</v>
       </c>
     </row>
     <row r="54">
@@ -37307,7 +37307,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>74.78060000000001</v>
+        <v>74.71729999999999</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -37330,10 +37330,10 @@
         </is>
       </c>
       <c r="H54">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
       <c r="I54">
-        <v>870204.5640164753</v>
+        <v>873693.2637797169</v>
       </c>
     </row>
     <row r="55">
@@ -37348,7 +37348,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>19.3239</v>
+        <v>19.3142</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -37371,10 +37371,10 @@
         </is>
       </c>
       <c r="H55">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
       <c r="I55">
-        <v>2838930.048715942</v>
+        <v>2855250.506724972</v>
       </c>
     </row>
     <row r="56">
@@ -37389,7 +37389,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>1.565</v>
+        <v>1.5648</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>23.5351</v>
+        <v>23.4923</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -37453,10 +37453,10 @@
         </is>
       </c>
       <c r="H57">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
       <c r="I57">
-        <v>3224265.772318033</v>
+        <v>3235187.169527389</v>
       </c>
     </row>
     <row r="58">
@@ -37471,7 +37471,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.2426</v>
+        <v>0.2418</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -37494,10 +37494,10 @@
         </is>
       </c>
       <c r="H58">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
       <c r="I58">
-        <v>4287773.828808057</v>
+        <v>4314446.972545605</v>
       </c>
     </row>
     <row r="59">
@@ -37512,7 +37512,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.7037</v>
+        <v>1.6755</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -37535,10 +37535,10 @@
         </is>
       </c>
       <c r="H59">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
       <c r="I59">
-        <v>2472588.772841141</v>
+        <v>2493443.136570161</v>
       </c>
     </row>
     <row r="60">
@@ -37553,7 +37553,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>33.1801</v>
+        <v>33.3988</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -37576,10 +37576,10 @@
         </is>
       </c>
       <c r="H60">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
       <c r="I60">
-        <v>385335.7236020907</v>
+        <v>379936.6628024168</v>
       </c>
     </row>
     <row r="61">
@@ -37594,7 +37594,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>47.9297</v>
+        <v>47.8898</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -37617,10 +37617,10 @@
         </is>
       </c>
       <c r="H61">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
       <c r="I61">
-        <v>870204.5640164753</v>
+        <v>873693.2637797169</v>
       </c>
     </row>
     <row r="62">
@@ -37635,7 +37635,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>12.4226</v>
+        <v>12.4164</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -37658,10 +37658,10 @@
         </is>
       </c>
       <c r="H62">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
       <c r="I62">
-        <v>2838930.048715942</v>
+        <v>2855250.506724972</v>
       </c>
     </row>
     <row r="63">
@@ -37717,7 +37717,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>14.9034</v>
+        <v>14.8806</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -37740,10 +37740,10 @@
         </is>
       </c>
       <c r="H64">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
       <c r="I64">
-        <v>3224265.772318033</v>
+        <v>3235187.169527389</v>
       </c>
     </row>
     <row r="65">
@@ -37758,7 +37758,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>0.4061</v>
+        <v>0.4047</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -37781,10 +37781,10 @@
         </is>
       </c>
       <c r="H65">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
       <c r="I65">
-        <v>5590543.048403272</v>
+        <v>5602090.265661246</v>
       </c>
     </row>
     <row r="66">
@@ -37799,7 +37799,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>2.9636</v>
+        <v>2.8788</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="H66">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
       <c r="I66">
-        <v>1652310.338778689</v>
+        <v>1704852.869276528</v>
       </c>
     </row>
     <row r="67">
@@ -37840,7 +37840,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>41.3137</v>
+        <v>41.4564</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -37863,10 +37863,10 @@
         </is>
       </c>
       <c r="H67">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
       <c r="I67">
-        <v>366834.5200520092</v>
+        <v>366637.2790759956</v>
       </c>
     </row>
     <row r="68">
@@ -37881,7 +37881,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>58.6423</v>
+        <v>58.4342</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -37904,10 +37904,10 @@
         </is>
       </c>
       <c r="H68">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
       <c r="I68">
-        <v>828119.5035156602</v>
+        <v>833173.8035260102</v>
       </c>
     </row>
     <row r="69">
@@ -37922,7 +37922,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>14.6398</v>
+        <v>14.621</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -37945,10 +37945,10 @@
         </is>
       </c>
       <c r="H69">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
       <c r="I69">
-        <v>3068629.492844852</v>
+        <v>3074003.076685124</v>
       </c>
     </row>
     <row r="70">
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.5062</v>
+        <v>0.5063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>17.488</v>
+        <v>17.4806</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -38027,10 +38027,10 @@
         </is>
       </c>
       <c r="H71">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
       <c r="I71">
-        <v>3435464.012896861</v>
+        <v>3440640.35576112</v>
       </c>
     </row>
     <row r="72">
@@ -38045,7 +38045,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.7306</v>
+        <v>0.7284</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -38068,10 +38068,10 @@
         </is>
       </c>
       <c r="H72">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
       <c r="I72">
-        <v>5590543.048403272</v>
+        <v>5602090.265661246</v>
       </c>
     </row>
     <row r="73">
@@ -38086,7 +38086,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>4.6949</v>
+        <v>4.5539</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -38109,10 +38109,10 @@
         </is>
       </c>
       <c r="H73">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
       <c r="I73">
-        <v>1652310.338778689</v>
+        <v>1704852.869276528</v>
       </c>
     </row>
     <row r="74">
@@ -38127,7 +38127,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>53.2741</v>
+        <v>53.4214</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -38150,10 +38150,10 @@
         </is>
       </c>
       <c r="H74">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
       <c r="I74">
-        <v>366834.5200520092</v>
+        <v>366637.2790759956</v>
       </c>
     </row>
     <row r="75">
@@ -38168,7 +38168,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>73.6516</v>
+        <v>73.39919999999999</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -38191,10 +38191,10 @@
         </is>
       </c>
       <c r="H75">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
       <c r="I75">
-        <v>828119.5035156602</v>
+        <v>833173.8035260102</v>
       </c>
     </row>
     <row r="76">
@@ -38209,7 +38209,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>18.3188</v>
+        <v>18.2958</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -38232,10 +38232,10 @@
         </is>
       </c>
       <c r="H76">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
       <c r="I76">
-        <v>3068629.492844852</v>
+        <v>3074003.076685124</v>
       </c>
     </row>
     <row r="77">
@@ -38250,7 +38250,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>1.5362</v>
+        <v>1.5364</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>22.0513</v>
+        <v>22.0388</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -38314,10 +38314,10 @@
         </is>
       </c>
       <c r="H78">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
       <c r="I78">
-        <v>3435464.012896861</v>
+        <v>3440640.35576112</v>
       </c>
     </row>
     <row r="79">
@@ -38332,7 +38332,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.23</v>
+        <v>0.2291</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -38355,10 +38355,10 @@
         </is>
       </c>
       <c r="H79">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
       <c r="I79">
-        <v>5590543.048403272</v>
+        <v>5602090.265661246</v>
       </c>
     </row>
     <row r="80">
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>1.892</v>
+        <v>1.8402</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -38396,10 +38396,10 @@
         </is>
       </c>
       <c r="H80">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
       <c r="I80">
-        <v>1652310.338778689</v>
+        <v>1704852.869276528</v>
       </c>
     </row>
     <row r="81">
@@ -38414,7 +38414,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>32.2903</v>
+        <v>32.4223</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -38437,10 +38437,10 @@
         </is>
       </c>
       <c r="H81">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
       <c r="I81">
-        <v>366834.5200520092</v>
+        <v>366637.2790759956</v>
       </c>
     </row>
     <row r="82">
@@ -38455,7 +38455,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>47.0837</v>
+        <v>46.9124</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -38478,10 +38478,10 @@
         </is>
       </c>
       <c r="H82">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
       <c r="I82">
-        <v>828119.5035156602</v>
+        <v>833173.8035260102</v>
       </c>
     </row>
     <row r="83">
@@ -38496,7 +38496,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>11.7629</v>
+        <v>11.7476</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -38519,10 +38519,10 @@
         </is>
       </c>
       <c r="H83">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
       <c r="I83">
-        <v>3068629.492844852</v>
+        <v>3074003.076685124</v>
       </c>
     </row>
     <row r="84">
@@ -38578,7 +38578,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>13.9548</v>
+        <v>13.9507</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -38601,10 +38601,10 @@
         </is>
       </c>
       <c r="H85">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
       <c r="I85">
-        <v>3435464.012896861</v>
+        <v>3440640.35576112</v>
       </c>
     </row>
     <row r="86">
@@ -38961,7 +38961,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>135375.5220495769</v>
+        <v>131351.8061388982</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>129198.5921507491</v>
+        <v>125757.5589567107</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>134612.8569423241</v>
+        <v>133148.6714303827</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>45283398.69206651</v>
+        <v>45376931.15185609</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>34730968.01334526</v>
+        <v>34947020.4776194</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>37472517.04867521</v>
+        <v>37515223.61549143</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>1761999.949107647</v>
+        <v>1765639.344430199</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1351399.533593202</v>
+        <v>1359806.244265347</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1458074.593333666</v>
+        <v>1459736.327451029</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -39201,7 +39201,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>22801882.67514591</v>
+        <v>23526969.59601609</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>34121725.06520775</v>
+        <v>34409515.28466822</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>27189099.15809581</v>
+        <v>27288591.20466541</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>18927033.55480108</v>
+        <v>19528902.47400293</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>28323232.97412772</v>
+        <v>28562117.42143738</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -39321,7 +39321,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>22568706.25209462</v>
+        <v>22651291.06891376</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -39361,7 +39361,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>2641208.544374466</v>
+        <v>2639788.409347168</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -39381,7 +39381,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2774417.209935053</v>
+        <v>2735543.972177401</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>6253444.08669039</v>
+        <v>6209933.314995517</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -39441,7 +39441,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>12587416.45343803</v>
+        <v>12664241.81359535</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -39461,7 +39461,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>13227109.37305043</v>
+        <v>13280137.6094517</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>13787934.50219887</v>
+        <v>13842405.55633968</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>237165.1794385075</v>
+        <v>235426.3769593371</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -39541,7 +39541,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>238137.4130827748</v>
+        <v>241848.7280517569</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>257206.2802710107</v>
+        <v>252623.6943823583</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>7671573.73211213</v>
+        <v>7685007.691712811</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>7097325.121789854</v>
+        <v>7138126.26681243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -39641,7 +39641,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>7154639.034773074</v>
+        <v>7198596.035411869</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>36068.47107873832</v>
+        <v>30399.02577444562</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -39701,7 +39701,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>34070.66654293994</v>
+        <v>32342.83559306026</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>36068.47107873832</v>
+        <v>33584.71408828629</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -39761,7 +39761,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>6341782.936811938</v>
+        <v>5449953.623085181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -39781,7 +39781,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>6284674.935189303</v>
+        <v>5722252.729421325</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -39801,7 +39801,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>6321840.296209149</v>
+        <v>6132150.378663957</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -39921,7 +39921,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>10312782.2764866</v>
+        <v>10324796.10105998</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -39941,7 +39941,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>9871742.331724908</v>
+        <v>9873670.23898983</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -39961,7 +39961,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>13408083.12146346</v>
+        <v>13408529.35040739</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>

--- a/results/multi_city/inj/inj_data.xlsx
+++ b/results/multi_city/inj/inj_data.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>3.05</v>
+        <v>3.44</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>13.38</v>
+        <v>12.71</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>16.61</v>
+        <v>15.79</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>10.78</v>
+        <v>10.24</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>17.67</v>
+        <v>16.81</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>21.83</v>
+        <v>20.78</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>14.31</v>
+        <v>13.61</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>12.44</v>
+        <v>12.5</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>15.65</v>
+        <v>15.72</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>9.890000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>11.06</v>
+        <v>12.53</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>13.78</v>
+        <v>15.59</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>8.890000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>42.62</v>
+        <v>45.13</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>51.38</v>
+        <v>54.38</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>35.37</v>
+        <v>37.49</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>56.24</v>
+        <v>59.77</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>67.41</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>46.96</v>
+        <v>49.95</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>3.62</v>
+        <v>2.95</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>41.22</v>
+        <v>35.59</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>49.78</v>
+        <v>43.08</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>34.15</v>
+        <v>29.42</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>40.54</v>
+        <v>38.42</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>49.77</v>
+        <v>47.21</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>33.04</v>
+        <v>31.29</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>53.55</v>
+        <v>50.81</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>65.40000000000001</v>
+        <v>62.1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>43.88</v>
+        <v>41.59</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>2.77</v>
+        <v>3.49</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>37.7</v>
+        <v>37.78</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>46.94</v>
+        <v>47.04</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>30.3</v>
+        <v>30.36</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>33.53</v>
+        <v>37.88</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>41.32</v>
+        <v>46.6</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>27.23</v>
+        <v>30.81</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>9.630000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>2.9</v>
+        <v>3.33</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>14.38</v>
+        <v>14.42</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>23.3</v>
+        <v>23.36</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>9.050000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>19.02</v>
+        <v>14.83</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>23.79</v>
+        <v>18.55</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>15.23</v>
+        <v>11.86</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>25.39</v>
+        <v>19.7</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>31.6</v>
+        <v>24.53</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>20.42</v>
+        <v>15.84</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>17.95</v>
+        <v>14.68</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>22.74</v>
+        <v>18.59</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>14.18</v>
+        <v>11.6</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="C158">
-        <v>16.24</v>
+        <v>14.84</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="C159">
-        <v>20.37</v>
+        <v>18.59</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>12.95</v>
+        <v>11.85</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>14.12</v>
+        <v>13.14</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>22.87</v>
+        <v>21.28</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         </is>
       </c>
       <c r="C163">
-        <v>8.85</v>
+        <v>8.24</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         </is>
       </c>
       <c r="C164">
-        <v>40.81</v>
+        <v>43.81</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="C165">
-        <v>49.21</v>
+        <v>52.79</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>33.86</v>
+        <v>36.39</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>54.36</v>
+        <v>58.39</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>65.16</v>
+        <v>69.92</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="C169">
-        <v>45.38</v>
+        <v>48.79</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="C170">
-        <v>3.75</v>
+        <v>2.58</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="C171">
-        <v>6.17</v>
+        <v>4.25</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>2.28</v>
+        <v>1.57</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="C176">
-        <v>40.6</v>
+        <v>35.23</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>49.05</v>
+        <v>42.65</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>33.64</v>
+        <v>29.12</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         </is>
       </c>
       <c r="C179">
-        <v>51.94</v>
+        <v>52.04</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C180">
-        <v>71.89</v>
+        <v>72.03</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>38.13</v>
+        <v>38.21</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>37.68</v>
+        <v>36.91</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>46.25</v>
+        <v>45.35</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>30.71</v>
+        <v>30.06</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>50.29</v>
+        <v>49.05</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>61.41</v>
+        <v>59.94</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>41.21</v>
+        <v>40.16</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>2.95</v>
+        <v>2.73</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>4.89</v>
+        <v>4.53</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>35.55</v>
+        <v>36.55</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>44.26</v>
+        <v>45.49</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>28.57</v>
+        <v>29.37</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>32.16</v>
+        <v>36.94</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>39.63</v>
+        <v>45.44</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>26.12</v>
+        <v>30.05</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="C221">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         </is>
       </c>
       <c r="C223">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>5.22</v>
+        <v>5.28</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>8.949999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>3.11</v>
+        <v>3.49</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="C238">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         </is>
       </c>
       <c r="C243">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         </is>
       </c>
       <c r="C244">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="C245">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>3.32</v>
+        <v>3.11</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="C247">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         </is>
       </c>
       <c r="C248">
-        <v>2.13</v>
+        <v>1.9</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         </is>
       </c>
       <c r="C249">
-        <v>3.29</v>
+        <v>2.93</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="C250">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="C251">
-        <v>17.12</v>
+        <v>16.88</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="C252">
-        <v>27.56</v>
+        <v>27.19</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         </is>
       </c>
       <c r="C253">
-        <v>10.84</v>
+        <v>10.69</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>11.29</v>
+        <v>11.64</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         </is>
       </c>
       <c r="C255">
-        <v>14.02</v>
+        <v>14.46</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         </is>
       </c>
       <c r="C256">
-        <v>9.1</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         </is>
       </c>
       <c r="C257">
-        <v>18.48</v>
+        <v>17.02</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="C258">
-        <v>22.83</v>
+        <v>21.05</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="C259">
-        <v>14.96</v>
+        <v>13.77</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         </is>
       </c>
       <c r="C263">
-        <v>11</v>
+        <v>11.69</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="C264">
-        <v>13.84</v>
+        <v>14.71</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         </is>
       </c>
       <c r="C265">
-        <v>8.74</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         </is>
       </c>
       <c r="C266">
-        <v>10.31</v>
+        <v>12.02</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         </is>
       </c>
       <c r="C267">
-        <v>12.84</v>
+        <v>14.95</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         </is>
       </c>
       <c r="C268">
-        <v>8.27</v>
+        <v>9.67</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         </is>
       </c>
       <c r="C269">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="C270">
-        <v>12.15</v>
+        <v>12.27</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         </is>
       </c>
       <c r="C271">
-        <v>4.94</v>
+        <v>4.98</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         </is>
       </c>
       <c r="C272">
-        <v>37.3</v>
+        <v>41.21</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         </is>
       </c>
       <c r="C273">
-        <v>44.98</v>
+        <v>49.65</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         </is>
       </c>
       <c r="C274">
-        <v>30.96</v>
+        <v>34.23</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         </is>
       </c>
       <c r="C275">
-        <v>59.67</v>
+        <v>62.29</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="C276">
-        <v>71.52</v>
+        <v>74.59</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         </is>
       </c>
       <c r="C277">
-        <v>49.82</v>
+        <v>52.06</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         </is>
       </c>
       <c r="C278">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="C279">
-        <v>3.22</v>
+        <v>2.72</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         </is>
       </c>
       <c r="C280">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="C284">
-        <v>39.41</v>
+        <v>34.53</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         </is>
       </c>
       <c r="C285">
-        <v>47.61</v>
+        <v>41.8</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="C286">
-        <v>32.66</v>
+        <v>28.55</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         </is>
       </c>
       <c r="C287">
-        <v>50.09</v>
+        <v>50.4</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>69.3</v>
+        <v>69.72</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         </is>
       </c>
       <c r="C289">
-        <v>36.79</v>
+        <v>37.02</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         </is>
       </c>
       <c r="C290">
-        <v>34.92</v>
+        <v>35.54</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         </is>
       </c>
       <c r="C291">
-        <v>42.88</v>
+        <v>43.67</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         </is>
       </c>
       <c r="C292">
-        <v>28.45</v>
+        <v>28.94</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="C293">
-        <v>57.16</v>
+        <v>51.99</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         </is>
       </c>
       <c r="C294">
-        <v>69.81</v>
+        <v>63.55</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>46.82</v>
+        <v>42.56</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         </is>
       </c>
       <c r="C296">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         </is>
       </c>
       <c r="C297">
-        <v>2.43</v>
+        <v>3.25</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         </is>
       </c>
       <c r="C298">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         </is>
       </c>
       <c r="C299">
-        <v>34.01</v>
+        <v>35.72</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         </is>
       </c>
       <c r="C300">
-        <v>42.36</v>
+        <v>44.47</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         </is>
       </c>
       <c r="C301">
-        <v>27.33</v>
+        <v>28.7</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         </is>
       </c>
       <c r="C302">
-        <v>31.87</v>
+        <v>36.71</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         </is>
       </c>
       <c r="C303">
-        <v>39.28</v>
+        <v>45.16</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         </is>
       </c>
       <c r="C304">
-        <v>25.88</v>
+        <v>29.85</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         </is>
       </c>
       <c r="C308">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="C309">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         </is>
       </c>
       <c r="C311">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         </is>
       </c>
       <c r="C312">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         </is>
       </c>
       <c r="C315">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="C317">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         </is>
       </c>
       <c r="C318">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         </is>
       </c>
       <c r="C329">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         </is>
       </c>
       <c r="C330">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="C331">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         </is>
       </c>
       <c r="C333">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         </is>
       </c>
       <c r="C335">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         </is>
       </c>
       <c r="C336">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         </is>
       </c>
       <c r="C337">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         </is>
       </c>
       <c r="C338">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         </is>
       </c>
       <c r="C339">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         </is>
       </c>
       <c r="C340">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         </is>
       </c>
       <c r="C341">
-        <v>6.59</v>
+        <v>6.49</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         </is>
       </c>
       <c r="C342">
-        <v>11.32</v>
+        <v>11.16</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="C343">
-        <v>3.89</v>
+        <v>3.83</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         </is>
       </c>
       <c r="C344">
-        <v>1.99</v>
+        <v>2.24</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         </is>
       </c>
       <c r="C345">
-        <v>3.07</v>
+        <v>3.45</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         </is>
       </c>
       <c r="C346">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="C351">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         </is>
       </c>
       <c r="C353">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         </is>
       </c>
       <c r="C354">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         </is>
       </c>
       <c r="C355">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         </is>
       </c>
       <c r="C356">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         </is>
       </c>
       <c r="C357">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="C359">
-        <v>13.03</v>
+        <v>13.21</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         </is>
       </c>
       <c r="C360">
-        <v>21.12</v>
+        <v>21.4</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         </is>
       </c>
       <c r="C361">
-        <v>8.199999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         </is>
       </c>
       <c r="C362">
-        <v>13.35</v>
+        <v>12.47</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         </is>
       </c>
       <c r="C363">
-        <v>16.58</v>
+        <v>15.5</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="C364">
-        <v>10.76</v>
+        <v>10.04</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="C365">
-        <v>13.9</v>
+        <v>14.75</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="C366">
-        <v>17.18</v>
+        <v>18.24</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         </is>
       </c>
       <c r="C367">
-        <v>11.26</v>
+        <v>11.93</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         </is>
       </c>
       <c r="C371">
-        <v>9.949999999999999</v>
+        <v>11.05</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         </is>
       </c>
       <c r="C372">
-        <v>12.53</v>
+        <v>13.91</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         </is>
       </c>
       <c r="C373">
-        <v>7.91</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         </is>
       </c>
       <c r="C374">
-        <v>9.75</v>
+        <v>11.6</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         </is>
       </c>
       <c r="C375">
-        <v>12.15</v>
+        <v>14.43</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         </is>
       </c>
       <c r="C376">
-        <v>7.83</v>
+        <v>9.33</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         </is>
       </c>
       <c r="C377">
-        <v>7.22</v>
+        <v>7.34</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         </is>
       </c>
       <c r="C378">
-        <v>11.39</v>
+        <v>11.58</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         </is>
       </c>
       <c r="C379">
-        <v>4.63</v>
+        <v>4.7</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         </is>
       </c>
       <c r="C380">
-        <v>43.81</v>
+        <v>46.05</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         </is>
       </c>
       <c r="C381">
-        <v>52.85</v>
+        <v>55.5</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         </is>
       </c>
       <c r="C382">
-        <v>36.35</v>
+        <v>38.23</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         </is>
       </c>
       <c r="C383">
-        <v>46.71</v>
+        <v>52.64</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="C384">
-        <v>56.01</v>
+        <v>63.06</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         </is>
       </c>
       <c r="C385">
-        <v>38.98</v>
+        <v>43.98</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="C386">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         </is>
       </c>
       <c r="C387">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         </is>
       </c>
       <c r="C388">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         </is>
       </c>
       <c r="C392">
-        <v>37.9</v>
+        <v>33.62</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         </is>
       </c>
       <c r="C393">
-        <v>45.8</v>
+        <v>40.72</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         </is>
       </c>
       <c r="C394">
-        <v>31.39</v>
+        <v>27.79</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         </is>
       </c>
       <c r="C395">
-        <v>47.44</v>
+        <v>47.98</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="C396">
-        <v>65.75</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         </is>
       </c>
       <c r="C397">
-        <v>34.78</v>
+        <v>35.18</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         </is>
       </c>
       <c r="C398">
-        <v>46.64</v>
+        <v>41.25</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         </is>
       </c>
       <c r="C399">
-        <v>57.25</v>
+        <v>50.68</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         </is>
       </c>
       <c r="C400">
-        <v>38.02</v>
+        <v>33.6</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="C401">
-        <v>48.57</v>
+        <v>48.77</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         </is>
       </c>
       <c r="C402">
-        <v>59.31</v>
+        <v>59.6</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         </is>
       </c>
       <c r="C403">
-        <v>39.8</v>
+        <v>39.94</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         </is>
       </c>
       <c r="C404">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         </is>
       </c>
       <c r="C405">
-        <v>2.45</v>
+        <v>3.31</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         </is>
       </c>
       <c r="C406">
-        <v>0.89</v>
+        <v>1.21</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         </is>
       </c>
       <c r="C407">
-        <v>34.78</v>
+        <v>36.56</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         </is>
       </c>
       <c r="C408">
-        <v>43.29</v>
+        <v>45.51</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="C409">
-        <v>27.95</v>
+        <v>29.38</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         </is>
       </c>
       <c r="C410">
-        <v>34.07</v>
+        <v>38.36</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="C411">
-        <v>41.97</v>
+        <v>47.19</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         </is>
       </c>
       <c r="C412">
-        <v>27.67</v>
+        <v>31.21</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         </is>
       </c>
       <c r="C417">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         </is>
       </c>
       <c r="C419">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         </is>
       </c>
       <c r="C420">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="C423">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         </is>
       </c>
       <c r="C425">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="C426">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         </is>
       </c>
       <c r="C469">
-        <v>43.82</v>
+        <v>41.53</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         </is>
       </c>
       <c r="C470">
-        <v>45.94</v>
+        <v>41.92</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         </is>
       </c>
       <c r="C471">
-        <v>37.55</v>
+        <v>38.31</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         </is>
       </c>
       <c r="C472">
-        <v>48.78</v>
+        <v>43.64</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         </is>
       </c>
       <c r="C474">
-        <v>53.92</v>
+        <v>51.13</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         </is>
       </c>
       <c r="C475">
-        <v>56.7</v>
+        <v>51.73999999999999</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>46.21</v>
+        <v>47.18</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         </is>
       </c>
       <c r="C477">
-        <v>59.99</v>
+        <v>53.72</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         </is>
       </c>
       <c r="C478">
-        <v>66.38</v>
+        <v>63</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         </is>
       </c>
       <c r="C479">
-        <v>70.03999999999999</v>
+        <v>63.90000000000001</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         </is>
       </c>
       <c r="C480">
-        <v>56.90000000000001</v>
+        <v>58.13</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         </is>
       </c>
       <c r="C481">
-        <v>73.83</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         </is>
       </c>
       <c r="C482">
-        <v>58.19</v>
+        <v>55.2</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         </is>
       </c>
       <c r="C483">
-        <v>61.63</v>
+        <v>56</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="C484">
-        <v>61.78</v>
+        <v>56.33</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         </is>
       </c>
       <c r="C485">
-        <v>51.06</v>
+        <v>51.87</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         </is>
       </c>
       <c r="C487">
-        <v>71.22</v>
+        <v>67.62</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         </is>
       </c>
       <c r="C488">
-        <v>75.68000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         </is>
       </c>
       <c r="C489">
-        <v>75.64</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="C490">
-        <v>62.47</v>
+        <v>63.52</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="C491">
-        <v>87.23</v>
+        <v>82.88</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         </is>
       </c>
       <c r="C492">
-        <v>93.00999999999999</v>
+        <v>84.47</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         </is>
       </c>
       <c r="C493">
-        <v>92.64</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         </is>
       </c>
       <c r="C494">
-        <v>76.49000000000001</v>
+        <v>77.84</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="C495">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         </is>
       </c>
       <c r="C496">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         </is>
       </c>
       <c r="C497">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         </is>
       </c>
       <c r="C498">
-        <v>0.89</v>
+        <v>1.21</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         </is>
       </c>
       <c r="C500">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="C501">
-        <v>2.95</v>
+        <v>2.73</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         </is>
       </c>
       <c r="C503">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="C504">
-        <v>2.77</v>
+        <v>3.49</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         </is>
       </c>
       <c r="C505">
-        <v>4.89</v>
+        <v>4.53</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         </is>
       </c>
       <c r="C506">
-        <v>2.43</v>
+        <v>3.25</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         </is>
       </c>
       <c r="C507">
-        <v>2.45</v>
+        <v>3.31</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         </is>
       </c>
       <c r="C508">
-        <v>40.19</v>
+        <v>40.3</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="C509">
-        <v>42.75</v>
+        <v>40.97</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         </is>
       </c>
       <c r="C510">
-        <v>36.07</v>
+        <v>38</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         </is>
       </c>
       <c r="C511">
-        <v>35.86</v>
+        <v>38.17</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         </is>
       </c>
       <c r="C513">
-        <v>50.14</v>
+        <v>50.28</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         </is>
       </c>
       <c r="C514">
-        <v>53.5</v>
+        <v>51.23</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         </is>
       </c>
       <c r="C515">
-        <v>45.01</v>
+        <v>47.41</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         </is>
       </c>
       <c r="C516">
-        <v>44.73</v>
+        <v>47.61</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         </is>
       </c>
       <c r="C517">
-        <v>62.59</v>
+        <v>62.76</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         </is>
       </c>
       <c r="C518">
-        <v>67</v>
+        <v>64.08</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         </is>
       </c>
       <c r="C519">
-        <v>56.2</v>
+        <v>59.18</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         </is>
       </c>
       <c r="C520">
-        <v>55.82</v>
+        <v>59.42</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="C522">
-        <v>8.85</v>
+        <v>8.24</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         </is>
       </c>
       <c r="C523">
-        <v>4.94</v>
+        <v>4.98</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="C524">
-        <v>4.63</v>
+        <v>4.7</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         </is>
       </c>
       <c r="C527">
-        <v>14.12</v>
+        <v>13.14</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         </is>
       </c>
       <c r="C528">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         </is>
       </c>
       <c r="C529">
-        <v>7.22</v>
+        <v>7.34</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         </is>
       </c>
       <c r="C531">
-        <v>22.87</v>
+        <v>21.28</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         </is>
       </c>
       <c r="C532">
-        <v>12.15</v>
+        <v>12.27</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="C533">
-        <v>11.39</v>
+        <v>11.58</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="C534">
-        <v>36.12</v>
+        <v>40.89</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         </is>
       </c>
       <c r="C535">
-        <v>39.07</v>
+        <v>41.9</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -23382,7 +23382,7 @@
         </is>
       </c>
       <c r="C536">
-        <v>34.15</v>
+        <v>39.52</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         </is>
       </c>
       <c r="C537">
-        <v>35.5</v>
+        <v>40.54</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         </is>
       </c>
       <c r="C539">
-        <v>44.59</v>
+        <v>50.41</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         </is>
       </c>
       <c r="C540">
-        <v>48.39999999999999</v>
+        <v>51.78</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         </is>
       </c>
       <c r="C541">
-        <v>42.18</v>
+        <v>48.73</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         </is>
       </c>
       <c r="C542">
-        <v>43.82</v>
+        <v>49.96</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         </is>
       </c>
       <c r="C543">
-        <v>55.1</v>
+        <v>62.19</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         </is>
       </c>
       <c r="C544">
-        <v>60</v>
+        <v>64.03</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         </is>
       </c>
       <c r="C545">
-        <v>52.12</v>
+        <v>60.11</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         </is>
       </c>
       <c r="C546">
-        <v>54.12</v>
+        <v>61.62</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         </is>
       </c>
       <c r="C547">
-        <v>184.76</v>
+        <v>184.62</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         </is>
       </c>
       <c r="C548">
-        <v>200.02</v>
+        <v>190.68</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         </is>
       </c>
       <c r="C549">
-        <v>175.37</v>
+        <v>178.32</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         </is>
       </c>
       <c r="C550">
-        <v>176.72</v>
+        <v>180.13</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="C551">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         </is>
       </c>
       <c r="C553">
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         </is>
       </c>
       <c r="C554">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         </is>
       </c>
       <c r="C555">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         </is>
       </c>
       <c r="C556">
-        <v>12.84</v>
+        <v>12.9</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         </is>
       </c>
       <c r="C557">
-        <v>14.98</v>
+        <v>14.75</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         </is>
       </c>
       <c r="C558">
-        <v>11.73</v>
+        <v>11.96</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         </is>
       </c>
       <c r="C560">
-        <v>71.63</v>
+        <v>59.39</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         </is>
       </c>
       <c r="C561">
-        <v>46.01</v>
+        <v>47.09</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         </is>
       </c>
       <c r="C562">
-        <v>42.39</v>
+        <v>44.79</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         </is>
       </c>
       <c r="C563">
-        <v>156.73</v>
+        <v>156.86</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         </is>
       </c>
       <c r="C564">
-        <v>153.29</v>
+        <v>154.08</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         </is>
       </c>
       <c r="C565">
-        <v>151.42</v>
+        <v>152.86</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         </is>
       </c>
       <c r="C566">
-        <v>142.59</v>
+        <v>146.12</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="C567">
-        <v>135.46</v>
+        <v>135.32</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="C568">
-        <v>128.39</v>
+        <v>131.29</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         </is>
       </c>
       <c r="C569">
-        <v>129.36</v>
+        <v>131.23</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         </is>
       </c>
       <c r="C570">
-        <v>134.33</v>
+        <v>135.34</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         </is>
       </c>
       <c r="C578">
-        <v>251.35</v>
+        <v>239.37</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         </is>
       </c>
       <c r="C579">
-        <v>218.2</v>
+        <v>222.07</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C580">
-        <v>219.71</v>
+        <v>224.15</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         </is>
       </c>
       <c r="C582">
-        <v>7.34</v>
+        <v>7.35</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         </is>
       </c>
       <c r="C583">
-        <v>7.13</v>
+        <v>7.16</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="C584">
-        <v>6.68</v>
+        <v>6.78</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         </is>
       </c>
       <c r="C585">
-        <v>8.24</v>
+        <v>8.120000000000001</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         </is>
       </c>
       <c r="C588">
-        <v>20.27</v>
+        <v>20.33</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         </is>
       </c>
       <c r="C589">
-        <v>23.53</v>
+        <v>23.15</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="C590">
-        <v>18.49</v>
+        <v>18.86</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         </is>
       </c>
       <c r="C592">
-        <v>63.01000000000001</v>
+        <v>63.01</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         </is>
       </c>
       <c r="C593">
-        <v>92.72</v>
+        <v>77.19</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         </is>
       </c>
       <c r="C594">
-        <v>58.78</v>
+        <v>60.15</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         </is>
       </c>
       <c r="C595">
-        <v>54.17</v>
+        <v>57.21</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         </is>
       </c>
       <c r="C598">
-        <v>191.46</v>
+        <v>192.05</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         </is>
       </c>
       <c r="C599">
-        <v>188.43</v>
+        <v>190.08</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         </is>
       </c>
       <c r="C600">
-        <v>177.65</v>
+        <v>181.84</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         </is>
       </c>
       <c r="C603">
-        <v>158.63</v>
+        <v>162.18</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="C604">
-        <v>159.42</v>
+        <v>161.92</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="C605">
-        <v>165.54</v>
+        <v>166.94</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         </is>
       </c>
       <c r="C607">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         </is>
       </c>
       <c r="C608">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="C609">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         </is>
       </c>
       <c r="C611">
-        <v>287.41</v>
+        <v>287.66</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         </is>
       </c>
       <c r="C612">
-        <v>317.81</v>
+        <v>302.29</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         </is>
       </c>
       <c r="C613">
-        <v>272.44</v>
+        <v>277.54</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         </is>
       </c>
       <c r="C614">
-        <v>274.1</v>
+        <v>279.95</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         </is>
       </c>
       <c r="C616">
-        <v>12.94</v>
+        <v>12.99</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         </is>
       </c>
       <c r="C617">
-        <v>12.14</v>
+        <v>12.33</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         </is>
       </c>
       <c r="C618">
-        <v>14.94</v>
+        <v>14.72</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         </is>
       </c>
       <c r="C620">
-        <v>32.43</v>
+        <v>32.52</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -27037,7 +27037,7 @@
         </is>
       </c>
       <c r="C621">
-        <v>37.48</v>
+        <v>36.89</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         </is>
       </c>
       <c r="C622">
-        <v>29.56</v>
+        <v>30.12</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         </is>
       </c>
       <c r="C623">
-        <v>81.20999999999999</v>
+        <v>81.22</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         </is>
       </c>
       <c r="C624">
-        <v>121.37</v>
+        <v>101.54</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         </is>
       </c>
       <c r="C625">
-        <v>75.67999999999999</v>
+        <v>77.44</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         </is>
       </c>
       <c r="C626">
-        <v>69.83</v>
+        <v>73.66</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         </is>
       </c>
       <c r="C627">
-        <v>245.5</v>
+        <v>245.29</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         </is>
       </c>
       <c r="C628">
-        <v>241.48</v>
+        <v>241.64</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         </is>
       </c>
       <c r="C629">
-        <v>236.63</v>
+        <v>238.48</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         </is>
       </c>
       <c r="C630">
-        <v>223.36</v>
+        <v>228.35</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         </is>
       </c>
       <c r="C631">
-        <v>206.2</v>
+        <v>206.44</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         </is>
       </c>
       <c r="C632">
-        <v>196.44</v>
+        <v>200.75</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         </is>
       </c>
       <c r="C633">
-        <v>196.76</v>
+        <v>200.1</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         </is>
       </c>
       <c r="C634">
-        <v>204.27</v>
+        <v>206.29</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         </is>
       </c>
       <c r="C635">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         </is>
       </c>
       <c r="C638">
-        <v>4.7</v>
+        <v>4.72</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.9396</v>
+        <v>0.9395</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>3.2206</v>
+        <v>3.22</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>73.4529</v>
+        <v>73.4637</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>47.8754</v>
+        <v>47.8294</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>74.10429999999999</v>
+        <v>74.18519999999999</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.928</v>
+        <v>1.9278</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>73.9191</v>
+        <v>73.98</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.2765</v>
+        <v>1.2767</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>44.5953</v>
+        <v>44.5882</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>30.5624</v>
+        <v>30.5881</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>48.6743</v>
+        <v>48.6313</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>47.5145</v>
+        <v>47.4817</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.5213</v>
+        <v>0.5236</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2.0399</v>
+        <v>2.046</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>40.9615</v>
+        <v>34.0967</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>38.0935</v>
+        <v>38.2114</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>60.5182</v>
+        <v>61.8736</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.6299</v>
+        <v>0.63</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>51.4554</v>
+        <v>49.0015</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.9462</v>
+        <v>0.9503</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>3.2652</v>
+        <v>3.2731</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>53.6092</v>
+        <v>44.8552</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>48.0452</v>
+        <v>48.0782</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>74.94280000000001</v>
+        <v>76.5882</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>1.9218</v>
+        <v>1.9217</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>65.0566</v>
+        <v>61.8828</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.2931</v>
+        <v>0.2944</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.2932</v>
+        <v>1.2977</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>31.6474</v>
+        <v>26.2345</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>30.5</v>
+        <v>30.6553</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>48.9797</v>
+        <v>50.0898</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.2164</v>
+        <v>0.2165</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>40.9477</v>
+        <v>39.035</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.5289</v>
+        <v>0.5363</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>1.8818</v>
+        <v>1.8529</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>58.5702</v>
+        <v>59.9383</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>39.0783</v>
+        <v>39.4213</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>61.4179</v>
+        <v>62.3764</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>60.624</v>
+        <v>61.6966</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.9613</v>
+        <v>0.9752</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>2.998</v>
+        <v>2.9518</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>75.4226</v>
+        <v>77.1741</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>49.0709</v>
+        <v>49.458</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>75.7966</v>
+        <v>77.08929999999999</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>75.69240000000001</v>
+        <v>77.1129</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.297</v>
+        <v>0.3011</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.1983</v>
+        <v>1.1801</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>45.8589</v>
+        <v>46.931</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>31.4019</v>
+        <v>31.7019</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>49.8379</v>
+        <v>50.5555</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>48.7286</v>
+        <v>49.545</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>0.5018</v>
+        <v>0.4944</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>2.1959</v>
+        <v>2.2383</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>57.6496</v>
+        <v>60.8681</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>38.8188</v>
+        <v>39.7344</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>58.7715</v>
+        <v>59.2705</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -30450,7 +30450,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.6262</v>
+        <v>0.628</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>58.4908</v>
+        <v>59.6702</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.909</v>
+        <v>0.8954</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>3.5108</v>
+        <v>3.5774</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>74.3066</v>
+        <v>78.3676</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>48.8057</v>
+        <v>49.8942</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -30678,7 +30678,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>72.5265</v>
+        <v>73.23560000000001</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -30716,7 +30716,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>1.9056</v>
+        <v>1.913</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>72.97190000000001</v>
+        <v>74.5196</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -30792,7 +30792,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.2827</v>
+        <v>0.2786</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -30830,7 +30830,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>1.3935</v>
+        <v>1.4207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>45.0967</v>
+        <v>47.6551</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -30906,7 +30906,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>31.1574</v>
+        <v>31.9276</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -30944,7 +30944,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>47.6921</v>
+        <v>48.0477</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>0.2156</v>
+        <v>0.216</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>47.0427</v>
+        <v>47.9495</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>4.4</v>
+        <v>4.19</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -32614,7 +32614,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>3.44</v>
+        <v>3.51</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>5.56</v>
+        <v>5.29</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -32860,7 +32860,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -32983,7 +32983,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>2.79</v>
+        <v>2.83</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -33352,7 +33352,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>3.82</v>
+        <v>3.88</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>4.77</v>
+        <v>4.85</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>3.07</v>
+        <v>3.12</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -34049,7 +34049,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>3.84</v>
+        <v>3.92</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -34377,7 +34377,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>3.91</v>
+        <v>3.99</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>3.57</v>
+        <v>3.61</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>4.79</v>
+        <v>4.9</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -34623,7 +34623,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -34787,7 +34787,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>3.09</v>
+        <v>3.15</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.7611</v>
+        <v>0.761</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>4.4445</v>
+        <v>4.4436</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>52.8861</v>
+        <v>52.8938</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -35585,7 +35585,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>72.7705</v>
+        <v>72.70059999999999</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>18.5261</v>
+        <v>18.5463</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.5617</v>
+        <v>1.5615</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>22.6915</v>
+        <v>22.7102</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.7615</v>
+        <v>1.7618</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>32.1086</v>
+        <v>32.1035</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>46.4548</v>
+        <v>46.4938</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -35913,7 +35913,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>12.1686</v>
+        <v>12.1578</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>14.5859</v>
+        <v>14.5758</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.4222</v>
+        <v>0.4241</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -36077,7 +36077,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2.8151</v>
+        <v>2.8234</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>29.4923</v>
+        <v>24.5496</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>57.9022</v>
+        <v>58.0813</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>15.1295</v>
+        <v>15.4684</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.5102</v>
+        <v>0.5103</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -36282,7 +36282,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>18.4429</v>
+        <v>17.5634</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.7665</v>
+        <v>0.7697000000000001</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>4.506</v>
+        <v>4.5169</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>38.5986</v>
+        <v>32.2957</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>73.0286</v>
+        <v>73.0788</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>18.7357</v>
+        <v>19.1471</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>1.5567</v>
+        <v>1.5566</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -36569,7 +36569,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>23.3179</v>
+        <v>22.1803</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -36610,7 +36610,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.2374</v>
+        <v>0.2385</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.7847</v>
+        <v>1.7908</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -36692,7 +36692,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>22.7861</v>
+        <v>18.8889</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -36733,7 +36733,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>46.36</v>
+        <v>46.5961</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>12.2449</v>
+        <v>12.5224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.1753</v>
+        <v>0.1754</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -36856,7 +36856,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>14.6767</v>
+        <v>13.9911</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -36897,7 +36897,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.4284</v>
+        <v>0.4344</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>2.5968</v>
+        <v>2.5571</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>42.1705</v>
+        <v>43.1556</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>59.399</v>
+        <v>59.9204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -37061,7 +37061,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>15.3545</v>
+        <v>15.5941</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -37143,7 +37143,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>18.5279</v>
+        <v>18.8558</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.7786</v>
+        <v>0.7899</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -37225,7 +37225,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>4.1372</v>
+        <v>4.0734</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>54.3043</v>
+        <v>55.5654</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>74.5878</v>
+        <v>75.17619999999999</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>18.9492</v>
+        <v>19.2723</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>23.1331</v>
+        <v>23.5673</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.2406</v>
+        <v>0.2439</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.6537</v>
+        <v>1.6285</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>33.0184</v>
+        <v>33.7903</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -37594,7 +37594,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>47.7308</v>
+        <v>48.1869</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>12.4595</v>
+        <v>12.6389</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>14.8924</v>
+        <v>15.142</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -37758,7 +37758,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>0.4065</v>
+        <v>0.4005</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -37799,7 +37799,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>3.0303</v>
+        <v>3.0888</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>41.5077</v>
+        <v>43.8251</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -37881,7 +37881,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>59.0045</v>
+        <v>60.3963</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>14.6929</v>
+        <v>14.8176</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.5072</v>
+        <v>0.5087</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>17.4772</v>
+        <v>17.8296</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.7363</v>
+        <v>0.7252999999999999</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -38086,7 +38086,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>4.8449</v>
+        <v>4.9368</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>53.5007</v>
+        <v>56.4246</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>74.18470000000001</v>
+        <v>75.83920000000001</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -38209,7 +38209,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>18.1316</v>
+        <v>18.3089</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>1.5435</v>
+        <v>1.5496</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>21.8042</v>
+        <v>22.2667</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.229</v>
+        <v>0.2256</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>1.923</v>
+        <v>1.9606</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>32.4696</v>
+        <v>34.3117</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>47.3592</v>
+        <v>48.53</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -38496,7 +38496,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>11.923</v>
+        <v>12.0119</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>0.1746</v>
+        <v>0.175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>14.0565</v>
+        <v>14.3274</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>29737405.85259059</v>
+        <v>23395622.91577865</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -39286,7 +39286,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>25492339.15882821</v>
+        <v>19150556.22201627</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>34718200.62714347</v>
+        <v>28425319.48114712</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>28911872.22604639</v>
+        <v>22589304.20925624</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>136572161.2380666</v>
+        <v>130230378.3012547</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -40001,7 +40001,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>131658626.0928186</v>
+        <v>125316843.1560066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>141449427.3706361</v>
+        <v>135156546.2246397</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -40041,7 +40041,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>135718524.9873151</v>
+        <v>129395956.970525</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
